--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_153.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_153.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32038-d75950-Reviews-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>148</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Baldwin-Park.h17766.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_153.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_153.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="668">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1924 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r589354891-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>32038</t>
+  </si>
+  <si>
+    <t>75950</t>
+  </si>
+  <si>
+    <t>589354891</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Friendly, clean, well-located and up to date</t>
+  </si>
+  <si>
+    <t>Stayed here while on business in nearby Covina.   It's Los Angeles-Baldwin Park, but that's a bit of a misnomer:  it's about an hour to LAX.   Still, if you're traveling in this area, it's a great spot.Rooms are clean and appear to have been recently renovated.  Bistro downstairs is very good, and there are a number of chain dining options in the adjacent strip mall.  No restaurants to write home about, but if you're here on business or traveling with the family, you'll find a spot without having to climb back in the car.   Wifi is excellent and the welcome is warm and genuine.There's a nice pool if you have the kids along, and easy access to the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Stayed here while on business in nearby Covina.   It's Los Angeles-Baldwin Park, but that's a bit of a misnomer:  it's about an hour to LAX.   Still, if you're traveling in this area, it's a great spot.Rooms are clean and appear to have been recently renovated.  Bistro downstairs is very good, and there are a number of chain dining options in the adjacent strip mall.  No restaurants to write home about, but if you're here on business or traveling with the family, you'll find a spot without having to climb back in the car.   Wifi is excellent and the welcome is warm and genuine.There's a nice pool if you have the kids along, and easy access to the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r583780929-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>583780929</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Updated property in Not-So-Updated neighborhood</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while doing some business in Azusa and decided to try the Courtyard Los Angeles Baldwin Park. The property appears updated both inside and out. Upon request, we received an upper level room that felt updated and clean - plenty roomy for 3 people. As a category 3 Marriott property we were able to use Marrriott Reward points for our stay for a reasonable rate.The lobby has a Starbucks as well as number of workspaces if you prefer to check email and get a coffee in the downstairs open area.While the room itself was a good value, we were a little surprised at the $6/night parking fee. Upon reviewing our reservation agreement, the fee was mentioned, but we had overlooked it. We felt that this was a pretty average location (ie. not Disneyland, not Downtown LA, etc) perhaps even less than average being sandwiched between the back of a Home Depot, the freeway and a older residential neighborhood. Bottom line, this property / location didn't really warrant charging for parking - seemed like a bit of nickel &amp; dimeing.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while doing some business in Azusa and decided to try the Courtyard Los Angeles Baldwin Park. The property appears updated both inside and out. Upon request, we received an upper level room that felt updated and clean - plenty roomy for 3 people. As a category 3 Marriott property we were able to use Marrriott Reward points for our stay for a reasonable rate.The lobby has a Starbucks as well as number of workspaces if you prefer to check email and get a coffee in the downstairs open area.While the room itself was a good value, we were a little surprised at the $6/night parking fee. Upon reviewing our reservation agreement, the fee was mentioned, but we had overlooked it. We felt that this was a pretty average location (ie. not Disneyland, not Downtown LA, etc) perhaps even less than average being sandwiched between the back of a Home Depot, the freeway and a older residential neighborhood. Bottom line, this property / location didn't really warrant charging for parking - seemed like a bit of nickel &amp; dimeing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r583748522-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>583748522</t>
+  </si>
+  <si>
+    <t>A nice clean place to stay!</t>
+  </si>
+  <si>
+    <t>I have stayed at the Courtyard Marriott’s in other locations.  I like the consistency of the hotels, I know what to expect and what I’m getting.  The Courtyard Marriott in Baldwin Park, however, was the most pleasing of the ones I have stayed in.I had a two night stay, Thursday and Friday nights.  The room was very clean and comfortable.  Aside from the air conditioning unit, the room was quiet as a church mouse despite being close to the Interstate. I knew what the Bistro had to offer and it was consistent with the others, a decent breakfast.  Nearby, in walking distance, there is Denny’s and the Guadalajara Grill. Parking  for the hotel was secure and amply lit.  I was on the 8th floor and the elevator was very fast.What set this hotel apart from the other Courtyards was the staff.  Each and every employed person encountered was very pleasant and friendly. Their attitude made the stay even more enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I have stayed at the Courtyard Marriott’s in other locations.  I like the consistency of the hotels, I know what to expect and what I’m getting.  The Courtyard Marriott in Baldwin Park, however, was the most pleasing of the ones I have stayed in.I had a two night stay, Thursday and Friday nights.  The room was very clean and comfortable.  Aside from the air conditioning unit, the room was quiet as a church mouse despite being close to the Interstate. I knew what the Bistro had to offer and it was consistent with the others, a decent breakfast.  Nearby, in walking distance, there is Denny’s and the Guadalajara Grill. Parking  for the hotel was secure and amply lit.  I was on the 8th floor and the elevator was very fast.What set this hotel apart from the other Courtyards was the staff.  Each and every employed person encountered was very pleasant and friendly. Their attitude made the stay even more enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r548113129-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>548113129</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed here using points so I can't really comment on price. Hotel was clean. Staff very friendly. Room was quiet. There's no free breakfast but there's food available in the lobby.  Location is right off the 10 so it's convenient. If you face the back of hotel you'll get a nice view of the mountains and sunrise. The other way you'll get the sunset. My only issue was they charge $6 a night for parking. Always surprises me of this when you're out in the suburbs. I can kind of understand it in a city when you have to park in a garage. But out here in the burbs doesn't make much sense.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here using points so I can't really comment on price. Hotel was clean. Staff very friendly. Room was quiet. There's no free breakfast but there's food available in the lobby.  Location is right off the 10 so it's convenient. If you face the back of hotel you'll get a nice view of the mountains and sunrise. The other way you'll get the sunset. My only issue was they charge $6 a night for parking. Always surprises me of this when you're out in the suburbs. I can kind of understand it in a city when you have to park in a garage. But out here in the burbs doesn't make much sense.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r544113067-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>544113067</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Great stay at the Courtyard.</t>
+  </si>
+  <si>
+    <t>We were visiting friends that lived about a mile or so away from the hotel.  The rooms were very good, large living area, King size bed, bathroom good size.  The staff at front desk were all very nice, very helpful if you had any problems or concerns.  Had a private parking area, $6 a day if you were staying at hotel, liked the security of the parking area. Good places to eat within a short distance, Wal-Mart about a five minute drive away. Would stay at hotel again, nice swimming pool and hot tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>We were visiting friends that lived about a mile or so away from the hotel.  The rooms were very good, large living area, King size bed, bathroom good size.  The staff at front desk were all very nice, very helpful if you had any problems or concerns.  Had a private parking area, $6 a day if you were staying at hotel, liked the security of the parking area. Good places to eat within a short distance, Wal-Mart about a five minute drive away. Would stay at hotel again, nice swimming pool and hot tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r534420936-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>534420936</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>The location of this hotel to Irwindale Speedway was pretty good - we went for the drift races in October, and there are plenty of restaurants nearby for a short stay (Denny's, Guadalajara Grill, McDonald's, Sizzler).  However I did pick this hotel for the "free wifi" and although yes, they technically have free wifi you can connect to, the wifi doesn't get you online or on the internet so it's kind of pointless to have.Smart TV in the room will allow you to log in to your existing Netflix account so that was kind of cool.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2017</t>
+  </si>
+  <si>
+    <t>The location of this hotel to Irwindale Speedway was pretty good - we went for the drift races in October, and there are plenty of restaurants nearby for a short stay (Denny's, Guadalajara Grill, McDonald's, Sizzler).  However I did pick this hotel for the "free wifi" and although yes, they technically have free wifi you can connect to, the wifi doesn't get you online or on the internet so it's kind of pointless to have.Smart TV in the room will allow you to log in to your existing Netflix account so that was kind of cool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r499939882-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>499939882</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Front desk agent</t>
+  </si>
+  <si>
+    <t>In July 6 after 3pm I walked into front door ,was anyone behind the an older African American gentleman name was Michael standing away from the desk didn't say anything to,I had to asking is this front desk he didn't say yes or no he said what you need.i told checking in and I have employees rates and he this is no good I have to 199 a night I told him I received 2e mail from the hotel said it's good and I drove gross the desert.he told there's some hotels down the road I could .i didn't have choice my kids are crying very tired I agree to pay the full price,he put us next to the elevator my kids didn't get any sleep.i hate to this but I'll tell everyone I know to don't stay in this hotel and that Michael guy he's very rude unfriendly unprofessional and needs to work in some place away from guest service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>In July 6 after 3pm I walked into front door ,was anyone behind the an older African American gentleman name was Michael standing away from the desk didn't say anything to,I had to asking is this front desk he didn't say yes or no he said what you need.i told checking in and I have employees rates and he this is no good I have to 199 a night I told him I received 2e mail from the hotel said it's good and I drove gross the desert.he told there's some hotels down the road I could .i didn't have choice my kids are crying very tired I agree to pay the full price,he put us next to the elevator my kids didn't get any sleep.i hate to this but I'll tell everyone I know to don't stay in this hotel and that Michael guy he's very rude unfriendly unprofessional and needs to work in some place away from guest service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r499791277-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>499791277</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back in Cali. </t>
+  </si>
+  <si>
+    <t>The hotel just doesn't cut it. The staff was great, but other than that it sucked. The food that is offered in the Bistro was over priced and tasted horrible. Most of it was frozen entrees and microwaved or toaster oven. Nothing complimentary at all. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>The hotel just doesn't cut it. The staff was great, but other than that it sucked. The food that is offered in the Bistro was over priced and tasted horrible. Most of it was frozen entrees and microwaved or toaster oven. Nothing complimentary at all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r488911666-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>488911666</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Average Courtyard Hotel - Convenient Location next to 10 Freeway</t>
+  </si>
+  <si>
+    <t>Hotel is what you would expect from a Courtyard brand in a not-so-great part of town. It worked for my daughter and I for one evening.The good - hotel itself is good quality and met basic expectations of our stayThe neutral  - they charge for parking ($6) in a secured area.  Considering the area thats probably good but not what you would normally expect from a suburban Courtyard.Front desk service was ok.  I was met by three front desk personnel and went to the first one who greeted me.  He then promptly asked me to wait so he could finish up with whatever he was doing (I was the only guest checking in).  Not big deal, I took a step back and waited and a couple minutes later went to the next agent who helped me check in.The opportunity - bathroom was not very clean - hair was in plain sight in the middle of the bathtub.  Shower pressure was light.Curtains are 1-2 inches too short which allows a lot of sunlight into the room (see photos).  Annoying if you plan to sleep in.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is what you would expect from a Courtyard brand in a not-so-great part of town. It worked for my daughter and I for one evening.The good - hotel itself is good quality and met basic expectations of our stayThe neutral  - they charge for parking ($6) in a secured area.  Considering the area thats probably good but not what you would normally expect from a suburban Courtyard.Front desk service was ok.  I was met by three front desk personnel and went to the first one who greeted me.  He then promptly asked me to wait so he could finish up with whatever he was doing (I was the only guest checking in).  Not big deal, I took a step back and waited and a couple minutes later went to the next agent who helped me check in.The opportunity - bathroom was not very clean - hair was in plain sight in the middle of the bathtub.  Shower pressure was light.Curtains are 1-2 inches too short which allows a lot of sunlight into the room (see photos).  Annoying if you plan to sleep in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r480219488-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>480219488</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>Beautiful place, friendly staff, and convenient location by freeway. The surrounding neighborhood is questionable and the actual entrance to hotel lot is really hidden, as in behind Home Depot and mini mall. Would stay again if needed because the facility is nice, but probably not since we didn't feel comfortable going out at night. We act drive, quite a ways away, for dinner, up feel comfy. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful place, friendly staff, and convenient location by freeway. The surrounding neighborhood is questionable and the actual entrance to hotel lot is really hidden, as in behind Home Depot and mini mall. Would stay again if needed because the facility is nice, but probably not since we didn't feel comfortable going out at night. We act drive, quite a ways away, for dinner, up feel comfy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r478575949-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>478575949</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>This location is very nice and clean, staff was friendly, room was great although it was only for one night. I would recommend this hotel and location to all my friends and family. I most likely will stay as this location next time I'm in town! MoreShow less</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>This location is very nice and clean, staff was friendly, room was great although it was only for one night. I would recommend this hotel and location to all my friends and family. I most likely will stay as this location next time I'm in town! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r471812546-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>471812546</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay with Nice view of LA suburb</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights and thoroughly enjoyed the stay. There is a Walmart near by for shopping and many good Indian restaurants within 10-12 miles. The swimming pool is outdoor and open to sky. It does not have a shower. Most people think that it must be cold because the pool is open. But I dared to take a dip and was pleasantly surprised to find it moderately heated. The jacuzzi was even better. You could have a refreshing dip while you are there.This one is well located in Baldwin Park near a big shopping mall. It may get lonely at night hours but did not find any homeless people around. Next time I will try the courtyard at Pasadena and will compare it with this one.Do enjoy some photographs.TIP: Get a room with the suburban view and on higher floors.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights and thoroughly enjoyed the stay. There is a Walmart near by for shopping and many good Indian restaurants within 10-12 miles. The swimming pool is outdoor and open to sky. It does not have a shower. Most people think that it must be cold because the pool is open. But I dared to take a dip and was pleasantly surprised to find it moderately heated. The jacuzzi was even better. You could have a refreshing dip while you are there.This one is well located in Baldwin Park near a big shopping mall. It may get lonely at night hours but did not find any homeless people around. Next time I will try the courtyard at Pasadena and will compare it with this one.Do enjoy some photographs.TIP: Get a room with the suburban view and on higher floors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r456484798-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>456484798</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>I was leery about staying here...</t>
+  </si>
+  <si>
+    <t>Due to this location, I was a bit concerned about booking this hotel. But, we needed something very close to a funeral and at the last minute, this was the best available. The staff was just ok-not attentive and many times playing on their phones or gossiping. It was pouring rain and the entry was slippery, but they were unconcerned. The bar staff, however, was fantastic. They were helpful, chatty, and attentive. The rooms were clean, well stocked, and quiet. I liked that you needed your room key to access the elevators. We did use the gym and pool and liked both. I would have no reason to stay again, but it served it's purpose. Our room faced the freeway, but it was very quiet all night and early during rush hour. Everything we requested at booking was in our room (extra pillows, towels, etc) and check out was quick and easy. Nothing spectacular, but ok for a one night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded February 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2017</t>
+  </si>
+  <si>
+    <t>Due to this location, I was a bit concerned about booking this hotel. But, we needed something very close to a funeral and at the last minute, this was the best available. The staff was just ok-not attentive and many times playing on their phones or gossiping. It was pouring rain and the entry was slippery, but they were unconcerned. The bar staff, however, was fantastic. They were helpful, chatty, and attentive. The rooms were clean, well stocked, and quiet. I liked that you needed your room key to access the elevators. We did use the gym and pool and liked both. I would have no reason to stay again, but it served it's purpose. Our room faced the freeway, but it was very quiet all night and early during rush hour. Everything we requested at booking was in our room (extra pillows, towels, etc) and check out was quick and easy. Nothing spectacular, but ok for a one night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r453572237-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>453572237</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Turned off water during work week to do repairs. Sounded like a bad idea but they committed to a 5am turn on time. 6am - no water - no way to take shower or brush teeth. GM not on property - no preparations for guests to shower before going to work. This is so unprofessional. Not what one would expect from a chain like this.MoreShow less</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Turned off water during work week to do repairs. Sounded like a bad idea but they committed to a 5am turn on time. 6am - no water - no way to take shower or brush teeth. GM not on property - no preparations for guests to shower before going to work. This is so unprofessional. Not what one would expect from a chain like this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r448448869-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>448448869</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>It was good until the last night</t>
+  </si>
+  <si>
+    <t>Im from Chicago and I have a long distance relationship with my fiancé. This isn't the first time we've been to a courtyard in California. We were here for five days, we had a great time until the last day. Me and my fiancé decided to watch tv and enjoy the last few hours with each other, few minutes later, some lady jiggles the handle, knocks on the door and mumbled something. We answered the door and there was no one. Another minute passes and a person from the front desk comes to our room and tells us that it's our first and final warning to stop the noise or we will be kicked out. Now I get that the tv was loud and I get you wanted us to turn it down but one, this lady startled us by jiggling the handle like she was trying to break in. Two, she didn't wait long enough for us to come out and ask what was wrong, she just did that for five seconds and then went back to her room and called the front desk. I also found it very rude and disrespectful for someone to talk to me like a little child and say this is my FIRST AND FINAL warning. I can understand if we were causing trouble the whole week but we weren't. Well I guess this is my FIRST AND LAST TIME coming here. This would...Im from Chicago and I have a long distance relationship with my fiancé. This isn't the first time we've been to a courtyard in California. We were here for five days, we had a great time until the last day. Me and my fiancé decided to watch tv and enjoy the last few hours with each other, few minutes later, some lady jiggles the handle, knocks on the door and mumbled something. We answered the door and there was no one. Another minute passes and a person from the front desk comes to our room and tells us that it's our first and final warning to stop the noise or we will be kicked out. Now I get that the tv was loud and I get you wanted us to turn it down but one, this lady startled us by jiggling the handle like she was trying to break in. Two, she didn't wait long enough for us to come out and ask what was wrong, she just did that for five seconds and then went back to her room and called the front desk. I also found it very rude and disrespectful for someone to talk to me like a little child and say this is my FIRST AND FINAL warning. I can understand if we were causing trouble the whole week but we weren't. Well I guess this is my FIRST AND LAST TIME coming here. This would of had five stars until this ruined my last good night with my fiancé.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Im from Chicago and I have a long distance relationship with my fiancé. This isn't the first time we've been to a courtyard in California. We were here for five days, we had a great time until the last day. Me and my fiancé decided to watch tv and enjoy the last few hours with each other, few minutes later, some lady jiggles the handle, knocks on the door and mumbled something. We answered the door and there was no one. Another minute passes and a person from the front desk comes to our room and tells us that it's our first and final warning to stop the noise or we will be kicked out. Now I get that the tv was loud and I get you wanted us to turn it down but one, this lady startled us by jiggling the handle like she was trying to break in. Two, she didn't wait long enough for us to come out and ask what was wrong, she just did that for five seconds and then went back to her room and called the front desk. I also found it very rude and disrespectful for someone to talk to me like a little child and say this is my FIRST AND FINAL warning. I can understand if we were causing trouble the whole week but we weren't. Well I guess this is my FIRST AND LAST TIME coming here. This would...Im from Chicago and I have a long distance relationship with my fiancé. This isn't the first time we've been to a courtyard in California. We were here for five days, we had a great time until the last day. Me and my fiancé decided to watch tv and enjoy the last few hours with each other, few minutes later, some lady jiggles the handle, knocks on the door and mumbled something. We answered the door and there was no one. Another minute passes and a person from the front desk comes to our room and tells us that it's our first and final warning to stop the noise or we will be kicked out. Now I get that the tv was loud and I get you wanted us to turn it down but one, this lady startled us by jiggling the handle like she was trying to break in. Two, she didn't wait long enough for us to come out and ask what was wrong, she just did that for five seconds and then went back to her room and called the front desk. I also found it very rude and disrespectful for someone to talk to me like a little child and say this is my FIRST AND FINAL warning. I can understand if we were causing trouble the whole week but we weren't. Well I guess this is my FIRST AND LAST TIME coming here. This would of had five stars until this ruined my last good night with my fiancé.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r436017826-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>436017826</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Always a good stay</t>
+  </si>
+  <si>
+    <t>I stay here quite a bit for work. Stays have consistently been above par. Beds are comfortable, front desk is attentive, and food and service at the in-house Bistro is very, very good. For breakfast the Classic Oatmeal or the Egg White Frittata are great choices. Have also had the Hummus starter and the Citrus Spinach Salad....both are filling and very flavorful. They also serve Starbucks coffee and drinks in-house as well although there is one nearby.  Also nearly are the Sizzler, a tasty mexican restaurant, and several fast food options.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2016</t>
+  </si>
+  <si>
+    <t>I stay here quite a bit for work. Stays have consistently been above par. Beds are comfortable, front desk is attentive, and food and service at the in-house Bistro is very, very good. For breakfast the Classic Oatmeal or the Egg White Frittata are great choices. Have also had the Hummus starter and the Citrus Spinach Salad....both are filling and very flavorful. They also serve Starbucks coffee and drinks in-house as well although there is one nearby.  Also nearly are the Sizzler, a tasty mexican restaurant, and several fast food options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r432861799-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>432861799</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Amazing service! Great location!</t>
+  </si>
+  <si>
+    <t>I stayed for 20 nights on a business trip alone.Room- jr suite large, clean, comfortable bed with several different pillows. Microwave and mini fridge in room. I would have preferred a kitchenette but it was fine. TV a little small.Gym- small but worked. Equipment in great shape, towels and water cooler provided.Pool - outside, small but clean. Area could use more ambiance.  Tables in the shade were nice to sit and have lunch. Restuarant- I was blown away by the bistro crew. In no time at all the recognized me  and knew my drink order.Front desk- always greeted me when I returned,  very helpful in recommending area restuarants etc.Location- Right off the I10 its very convenient. Area felt safe. You need your key card to operate lobby elevators,  which made me feel safer.  Restaurants right in parking lot include Sizzler, Dennys, Guadalajara grill, Starbucks, McDonalds.  There is also a suishi place fast food at end of parking lot. Its a 5 minute drive to Walmart, Panda Express, Farmer Boys. Also 5 minutes another direction to West Covina Plaza which is a large mall with great restaurants.  I loved the Lazy Dog!Overall this is an excellent hotel in a convenient location.  The staff is wonderful. They made me feel at home.  Its a real gem.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>I stayed for 20 nights on a business trip alone.Room- jr suite large, clean, comfortable bed with several different pillows. Microwave and mini fridge in room. I would have preferred a kitchenette but it was fine. TV a little small.Gym- small but worked. Equipment in great shape, towels and water cooler provided.Pool - outside, small but clean. Area could use more ambiance.  Tables in the shade were nice to sit and have lunch. Restuarant- I was blown away by the bistro crew. In no time at all the recognized me  and knew my drink order.Front desk- always greeted me when I returned,  very helpful in recommending area restuarants etc.Location- Right off the I10 its very convenient. Area felt safe. You need your key card to operate lobby elevators,  which made me feel safer.  Restaurants right in parking lot include Sizzler, Dennys, Guadalajara grill, Starbucks, McDonalds.  There is also a suishi place fast food at end of parking lot. Its a 5 minute drive to Walmart, Panda Express, Farmer Boys. Also 5 minutes another direction to West Covina Plaza which is a large mall with great restaurants.  I loved the Lazy Dog!Overall this is an excellent hotel in a convenient location.  The staff is wonderful. They made me feel at home.  Its a real gem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r430192474-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>430192474</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Satisfactory One Night Stay</t>
+  </si>
+  <si>
+    <t>We needed a hotel near Glendale, CA and relied on TripAdvisor reviews to choose this Courtyard.  We were quite satisfied with the hotel - the room was clean and quiet and we slept comfortably.  Parking was free and close to the front entrance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r414284349-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>414284349</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>The only worthwhile place in the area!!</t>
+  </si>
+  <si>
+    <t>After searching nearly all of the places to stay in the area and reading the reviews, it was very clear that the Courtyard LA Baldwin Park was the only choice for me, even at twice the price!! The hotel is located near nice restaurants, the rooms were very quite and clean, the staff was very friendly, and they have a nice bistro which is opened from breakfast to nightcap. I will definitely stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>After searching nearly all of the places to stay in the area and reading the reviews, it was very clear that the Courtyard LA Baldwin Park was the only choice for me, even at twice the price!! The hotel is located near nice restaurants, the rooms were very quite and clean, the staff was very friendly, and they have a nice bistro which is opened from breakfast to nightcap. I will definitely stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r414078314-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>414078314</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Bug bites</t>
+  </si>
+  <si>
+    <t>Stayed here for a week on business. I would strongly recommend this hotel to someone who likes to wake up in the morning covered in mosquito bites.  Changed rooms, and more bites the next morning. So, yeah now I'm itchy.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a week on business. I would strongly recommend this hotel to someone who likes to wake up in the morning covered in mosquito bites.  Changed rooms, and more bites the next morning. So, yeah now I'm itchy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r391375887-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>391375887</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard for a quick night during a baseball tournament.  The location of this hotel is great, there are many restaurants and a Starbucks nearby.  Not that you really need it, though, because the hotel has a Starbucks and a bistro inside.  The staff was very accommodating, ensuring that we had a room next to another player, so the kids had fun.  The rooms were clean, the beds are comfy, the pool area looked nice, we would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard for a quick night during a baseball tournament.  The location of this hotel is great, there are many restaurants and a Starbucks nearby.  Not that you really need it, though, because the hotel has a Starbucks and a bistro inside.  The staff was very accommodating, ensuring that we had a room next to another player, so the kids had fun.  The rooms were clean, the beds are comfy, the pool area looked nice, we would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r384746568-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>384746568</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>I visited on the 112 degree day and the air conditioner kept the room cold . Service is friendly and the rooms are clean . I really like the courtyard bistros . I had the southwest salad for dinner and egg sandwich for breakfast . I would come back again MoreShow less</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>I visited on the 112 degree day and the air conditioner kept the room cold . Service is friendly and the rooms are clean . I really like the courtyard bistros . I had the southwest salad for dinner and egg sandwich for breakfast . I would come back again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r368321205-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>368321205</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Nice Enough</t>
+  </si>
+  <si>
+    <t>We were in town for a friend's wedding and stayed 2 nights at this hotel. The staff was wonderful! Very kind, welcoming and helpful. The lobby was spacious, with a conveniently located Starbucks. Hotel is the middle of a shopping center, so very convenient with lots of restaurant options and a Walmart just down the street in case you've forgotten anything. Rooms are spacious, we really had no issues except the hot water seemed to run out quickly. It would turn cold while you were in the shower, then take a few minutes to warm back up. Just a tiny, but noticeable inconvenience. This hotel does have nice banquet facilities if you are looking for a place for an event.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Henry Z, Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>We were in town for a friend's wedding and stayed 2 nights at this hotel. The staff was wonderful! Very kind, welcoming and helpful. The lobby was spacious, with a conveniently located Starbucks. Hotel is the middle of a shopping center, so very convenient with lots of restaurant options and a Walmart just down the street in case you've forgotten anything. Rooms are spacious, we really had no issues except the hot water seemed to run out quickly. It would turn cold while you were in the shower, then take a few minutes to warm back up. Just a tiny, but noticeable inconvenience. This hotel does have nice banquet facilities if you are looking for a place for an event.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r358025857-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>358025857</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>18th Birthday celebration ballroom</t>
+  </si>
+  <si>
+    <t>We had the nicest time during the 18th birthday party of my daughter Jackie. Vanessa Johnson, catering manager did a great job on planning for party catering &amp; preparation for event. Everything was done on timely manner &amp; catered to all our party needs. Hotel is clean &amp; room that  my sister stayed. Staff are friendly food is great. Our guests gave good compliments on food &amp; services. Thanks to Ray Lopez too. Carlito &amp; ElenaMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded April 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2016</t>
+  </si>
+  <si>
+    <t>We had the nicest time during the 18th birthday party of my daughter Jackie. Vanessa Johnson, catering manager did a great job on planning for party catering &amp; preparation for event. Everything was done on timely manner &amp; catered to all our party needs. Hotel is clean &amp; room that  my sister stayed. Staff are friendly food is great. Our guests gave good compliments on food &amp; services. Thanks to Ray Lopez too. Carlito &amp; ElenaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r342684590-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>342684590</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean , welcoming and great location </t>
+  </si>
+  <si>
+    <t>It was nice hotel,  clean, welcoming and great location. It was only one night stay with family but it was great service. Location is great as it close to all amenities. Value for money. Highly recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2016</t>
+  </si>
+  <si>
+    <t>It was nice hotel,  clean, welcoming and great location. It was only one night stay with family but it was great service. Location is great as it close to all amenities. Value for money. Highly recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r342473252-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>342473252</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Too much Drama</t>
+  </si>
+  <si>
+    <t>Check-in: We're Marriott Gold Elite members and check in was less than stellar. I checked in with my Marriott Rewards card, which is on file and has been for years. Yet, I had to provide the card to check-in. I don't carry it with me. My husband has it. I always check in without it. A few apologies later and we had our room card.We were on the top floor, Room 911. Night one we didn't call the front desk and just endured the noise: running in halls, shouting outside our door. Night two we called the front desk: shouting (profanity) outside our door, pounding on doors, running in halls. Security came quickly and 15 minutes later the hall was quiet.Wall in bathroom dirty, like someone had dumped a soda in the trash and it splashed onto the wall and it was overlooked. The room was clean otherwise, bedding comfortable, toiletries provided, coffee and tea provided in room, refrigerator.Breakfast is not provided though they do have a Bistro in lobby with Starbucks coffee and a large variety of food on their menu. Wine and liquor available as well. I won't add this Marriott to the list that we will return to when in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Check-in: We're Marriott Gold Elite members and check in was less than stellar. I checked in with my Marriott Rewards card, which is on file and has been for years. Yet, I had to provide the card to check-in. I don't carry it with me. My husband has it. I always check in without it. A few apologies later and we had our room card.We were on the top floor, Room 911. Night one we didn't call the front desk and just endured the noise: running in halls, shouting outside our door. Night two we called the front desk: shouting (profanity) outside our door, pounding on doors, running in halls. Security came quickly and 15 minutes later the hall was quiet.Wall in bathroom dirty, like someone had dumped a soda in the trash and it splashed onto the wall and it was overlooked. The room was clean otherwise, bedding comfortable, toiletries provided, coffee and tea provided in room, refrigerator.Breakfast is not provided though they do have a Bistro in lobby with Starbucks coffee and a large variety of food on their menu. Wine and liquor available as well. I won't add this Marriott to the list that we will return to when in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r340461824-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>340461824</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>I love the Marriott chains and have had really great luck every time I've gone. This is the second courtyard in the area that we've been to and it was clean, comfortable and quiet. If you book online, just an FYI, they will let you request a roll away but they will not allow one in a room with two queens. Obviously once we got there I could see why, but they don't inform of that when booking online. Otherwise, staff was pleasant and helpful and I've found that to be consistent with Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>I love the Marriott chains and have had really great luck every time I've gone. This is the second courtyard in the area that we've been to and it was clean, comfortable and quiet. If you book online, just an FYI, they will let you request a roll away but they will not allow one in a room with two queens. Obviously once we got there I could see why, but they don't inform of that when booking online. Otherwise, staff was pleasant and helpful and I've found that to be consistent with Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r328011516-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>328011516</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Good location and great staff</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located for my various business meetings in LA. The lobby and the rooms are very nice with the exception that the bathroom needs to be updated.  The Bistro was excellent, especially the staff (Chris, Johnathan and Debbie). Thanks for the great, welcoming service.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located for my various business meetings in LA. The lobby and the rooms are very nice with the exception that the bathroom needs to be updated.  The Bistro was excellent, especially the staff (Chris, Johnathan and Debbie). Thanks for the great, welcoming service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r325926071-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>325926071</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Clean Facilities and Welcoming Staff</t>
+  </si>
+  <si>
+    <t>Stayed here with a tour group while traveling with family, and in no way shape or form did this hotel treat us like a herd of animals (as lots of tour-group hotels do get flustered with group arrivals and don't even bother to talk to us). Nice clean facility and staff was very welcoming. After traveling all the way from San Francisco, we were extremely tired and wary of the service we received from some other hotels we stayed at along the way. This place definitely made us feel comfortable and rested. Outdoor pool is amazing for late night hangout/swims. The only thing I would say the hotel could have done better is higher security. There was a woman outside the hotel hollering racial remarks along the lines of "hey china" "chinatown" to us as we left. Not really the hotel's fault, but it was on property nonetheless, and that definitely set a sour tone to our morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here with a tour group while traveling with family, and in no way shape or form did this hotel treat us like a herd of animals (as lots of tour-group hotels do get flustered with group arrivals and don't even bother to talk to us). Nice clean facility and staff was very welcoming. After traveling all the way from San Francisco, we were extremely tired and wary of the service we received from some other hotels we stayed at along the way. This place definitely made us feel comfortable and rested. Outdoor pool is amazing for late night hangout/swims. The only thing I would say the hotel could have done better is higher security. There was a woman outside the hotel hollering racial remarks along the lines of "hey china" "chinatown" to us as we left. Not really the hotel's fault, but it was on property nonetheless, and that definitely set a sour tone to our morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r320214355-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>320214355</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>They Won't Let You See a Room</t>
+  </si>
+  <si>
+    <t>We were driving around at night, looking for a hotel close to Los Angeles, and came upon this one. It was probably about 10pm. We were happy, thinking we'd probably found our place to stay for the night.
+We went in, they quoted us a price, and then we asked to see a room. Their reply, "We have pictures of the rooms online. You can look at those." Uhh, what? Yeah, like all the pictures online, dressed up to make all hotels look extra good, are the same ones you get in person. Both my husband and I tried again and the guy at the desk was a bit of a jerk about us seeing the rooms, claiming it's "corporate policy" to not allow such a thing.
+So my husband asked what happens if we pay for a room and we get up there and don't like it. Refund? No go. You get it whether it's crappy or not. Wow. At that point I flat out asked them if their rooms were so bad that they wouldn't let anyone take a look at them before paying almost $200 for a night. He insisted that they weren't but I wasn't convinced. What a stupid policy.
+Oh well, we drove another 5 or 10 minutes, found a hotel that DID less us check out the room before paying, and we stayed there instead. We plan be to going up to the area...We were driving around at night, looking for a hotel close to Los Angeles, and came upon this one. It was probably about 10pm. We were happy, thinking we'd probably found our place to stay for the night.We went in, they quoted us a price, and then we asked to see a room. Their reply, "We have pictures of the rooms online. You can look at those." Uhh, what? Yeah, like all the pictures online, dressed up to make all hotels look extra good, are the same ones you get in person. Both my husband and I tried again and the guy at the desk was a bit of a jerk about us seeing the rooms, claiming it's "corporate policy" to not allow such a thing.So my husband asked what happens if we pay for a room and we get up there and don't like it. Refund? No go. You get it whether it's crappy or not. Wow. At that point I flat out asked them if their rooms were so bad that they wouldn't let anyone take a look at them before paying almost $200 for a night. He insisted that they weren't but I wasn't convinced. What a stupid policy.Oh well, we drove another 5 or 10 minutes, found a hotel that DID less us check out the room before paying, and we stayed there instead. We plan be to going up to the area probably once a week for the next 6 months or so, and will need a room quite often, so I guess it's their loss. If we had liked this place we probably would have just kept coming back. Now we won't be visiting at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>We were driving around at night, looking for a hotel close to Los Angeles, and came upon this one. It was probably about 10pm. We were happy, thinking we'd probably found our place to stay for the night.
+We went in, they quoted us a price, and then we asked to see a room. Their reply, "We have pictures of the rooms online. You can look at those." Uhh, what? Yeah, like all the pictures online, dressed up to make all hotels look extra good, are the same ones you get in person. Both my husband and I tried again and the guy at the desk was a bit of a jerk about us seeing the rooms, claiming it's "corporate policy" to not allow such a thing.
+So my husband asked what happens if we pay for a room and we get up there and don't like it. Refund? No go. You get it whether it's crappy or not. Wow. At that point I flat out asked them if their rooms were so bad that they wouldn't let anyone take a look at them before paying almost $200 for a night. He insisted that they weren't but I wasn't convinced. What a stupid policy.
+Oh well, we drove another 5 or 10 minutes, found a hotel that DID less us check out the room before paying, and we stayed there instead. We plan be to going up to the area...We were driving around at night, looking for a hotel close to Los Angeles, and came upon this one. It was probably about 10pm. We were happy, thinking we'd probably found our place to stay for the night.We went in, they quoted us a price, and then we asked to see a room. Their reply, "We have pictures of the rooms online. You can look at those." Uhh, what? Yeah, like all the pictures online, dressed up to make all hotels look extra good, are the same ones you get in person. Both my husband and I tried again and the guy at the desk was a bit of a jerk about us seeing the rooms, claiming it's "corporate policy" to not allow such a thing.So my husband asked what happens if we pay for a room and we get up there and don't like it. Refund? No go. You get it whether it's crappy or not. Wow. At that point I flat out asked them if their rooms were so bad that they wouldn't let anyone take a look at them before paying almost $200 for a night. He insisted that they weren't but I wasn't convinced. What a stupid policy.Oh well, we drove another 5 or 10 minutes, found a hotel that DID less us check out the room before paying, and we stayed there instead. We plan be to going up to the area probably once a week for the next 6 months or so, and will need a room quite often, so I guess it's their loss. If we had liked this place we probably would have just kept coming back. Now we won't be visiting at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r302600343-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>302600343</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>we had pleasure of staying at this hotel for one night. The hotel is close to the freeway and near Kaiser. We were able to check into our room quickly. Our room was very big and had everything we needed. It was very clean and quiet. We had to leave super early in the morning and the Starbucks was just setting up the guy was nice enough to make us a couple coffees. So nice. I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>we had pleasure of staying at this hotel for one night. The hotel is close to the freeway and near Kaiser. We were able to check into our room quickly. Our room was very big and had everything we needed. It was very clean and quiet. We had to leave super early in the morning and the Starbucks was just setting up the guy was nice enough to make us a couple coffees. So nice. I would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r296298998-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>296298998</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>New hotel, great views, not much around</t>
+  </si>
+  <si>
+    <t>I stayed here on business in San Dimas. The hotel was new, clean, and comfortable, but there wasn't much else around in terms of activity. The view of the mountains from the room was very nice, but they were an hour's drive away. There are a few restaurants around. I ate at the Guadalajara Grill.MoreShow less</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here on business in San Dimas. The hotel was new, clean, and comfortable, but there wasn't much else around in terms of activity. The view of the mountains from the room was very nice, but they were an hour's drive away. There are a few restaurants around. I ate at the Guadalajara Grill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r294870990-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>294870990</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Close to I10 Freeway and Free Parking</t>
+  </si>
+  <si>
+    <t>Attended a wedding in Monterey Park and this Courtyard was a good location for us.  It was about 15-30 mins to MP via freeway depending on traffic. Because this is a suburb of LA; parking @ the hotel was self-park &amp; FREE!  There is an onsite restaurant; but there are plenty of other restaurants w/in walking distance.  There is a Sizzler's right next door, the adjacent strip mall there is a Home Depot, McD's, Starbuck's, Denny's &amp; local Mexican Grill.  Down the street is a Panda Express, a Walmart &amp; gas stns.  Very convenient location.The staff are all professional; rooms were nicely appointed, clean &amp; comfortable. Nice large lobby; pool (small) is outside fenced in near the parking lot and 1st floor gym was tiny &amp; OK to use if it isn't crowded.This hotel is reasonably priced, but you will have to deal w/ traffic &amp; distance if you need to get to the heart of LA.  I would not used this hotel as home base if you plan to go to a lot of tourist places closer to LA proper.MoreShow less</t>
+  </si>
+  <si>
+    <t>Attended a wedding in Monterey Park and this Courtyard was a good location for us.  It was about 15-30 mins to MP via freeway depending on traffic. Because this is a suburb of LA; parking @ the hotel was self-park &amp; FREE!  There is an onsite restaurant; but there are plenty of other restaurants w/in walking distance.  There is a Sizzler's right next door, the adjacent strip mall there is a Home Depot, McD's, Starbuck's, Denny's &amp; local Mexican Grill.  Down the street is a Panda Express, a Walmart &amp; gas stns.  Very convenient location.The staff are all professional; rooms were nicely appointed, clean &amp; comfortable. Nice large lobby; pool (small) is outside fenced in near the parking lot and 1st floor gym was tiny &amp; OK to use if it isn't crowded.This hotel is reasonably priced, but you will have to deal w/ traffic &amp; distance if you need to get to the heart of LA.  I would not used this hotel as home base if you plan to go to a lot of tourist places closer to LA proper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r288381504-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>288381504</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>The only con I have to say about this place was, they never offered early check in. We had an occasion to attend to around the area at 2pm. I mention this at the bookin. The rep did say it's not guaranteed but almost all the hotels do provide this. But when I get to the hotel the lady at the reception said to me that she can't give me a room until 4pm, which was the check in time. Most hotels do at 3 pm and 12 pm checkout, but this hotel check in at 4 checkout at 11am. So, I had to go do my thing with all the language and come back at night.Other than that everything was good. Good rooms and good customer Service. places to eat right around the hotel. So if you want a place for one or two days and  have early check in and leave around 12pm this is not the place for you. Do your  research and you will find what you looking for, but for good night sleep and have few days this place is very good. I would give this place 4 stars if they offered that. BTW breakfast is available but for a charge. They should look in to giving complimentary breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>The only con I have to say about this place was, they never offered early check in. We had an occasion to attend to around the area at 2pm. I mention this at the bookin. The rep did say it's not guaranteed but almost all the hotels do provide this. But when I get to the hotel the lady at the reception said to me that she can't give me a room until 4pm, which was the check in time. Most hotels do at 3 pm and 12 pm checkout, but this hotel check in at 4 checkout at 11am. So, I had to go do my thing with all the language and come back at night.Other than that everything was good. Good rooms and good customer Service. places to eat right around the hotel. So if you want a place for one or two days and  have early check in and leave around 12pm this is not the place for you. Do your  research and you will find what you looking for, but for good night sleep and have few days this place is very good. I would give this place 4 stars if they offered that. BTW breakfast is available but for a charge. They should look in to giving complimentary breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r285379045-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>285379045</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Reliable and comfortable</t>
+  </si>
+  <si>
+    <t>I frequently stay at this Courtyard because it's near one of my company's offices in LA.  Its conveniently located right of of I-10 but you never hear freeway noise and it's easy to access from the freeway.  The staff are friendly and the amenities like The Bistro are handy especially if you want to grab something quick in the morning or get back to the hotel pretty late.  If you want to grab something outside the hotel there is a Starbucks, Sizzler, Dennys, Mexican and Japanese within walking distance.  If you have a car, there are countless other restaurants and a shopping mall within a couple of miles.  The rooms are comfortable and you need a room key to use the elevators which provides some added security.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I frequently stay at this Courtyard because it's near one of my company's offices in LA.  Its conveniently located right of of I-10 but you never hear freeway noise and it's easy to access from the freeway.  The staff are friendly and the amenities like The Bistro are handy especially if you want to grab something quick in the morning or get back to the hotel pretty late.  If you want to grab something outside the hotel there is a Starbucks, Sizzler, Dennys, Mexican and Japanese within walking distance.  If you have a car, there are countless other restaurants and a shopping mall within a couple of miles.  The rooms are comfortable and you need a room key to use the elevators which provides some added security.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r285133266-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>285133266</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Back to normal!</t>
+  </si>
+  <si>
+    <t>I found this hotel at last and if I had found it first instead of the one in Hacienda Heights I would have saved myself so much trouble, aggravation and time!
+I say "at last" because I spent one night in the Courtyard in Hacienda Heights and one night in the Doubletree at Ontario Airport and had I found this I would have stayed all 3 nights here. 
+If you find yourself in the City of Industry/Hacienda Heights or Baldwin Park area this should be your first choice for business travel.
+Newly constructed this 9 story building is not typical of your average Courtyard.  It has an expansive lobby and all the amenities a business traveler needs.   Quick friendly check in.
+I noticed one of the two elevators was not working when I arrived but after I unpacked and went down for dinner it had been fixed.  The gym, while typical for Courtyard, was immaculate and in excellent order.
+Dinner at The Bistro got me a 10% discount with a coupon given to me by the front desk clerk.   I had the Hummus and Turkey Ruben sandwich and the service was fast and friendly.
+The hotel is located just off I-10 and with construction in the area can be a bit of a challenge to reach.  I was on the 4th floor and faced the back of the hotel which sits in between I-10 and a neighborhood of single family...I found this hotel at last and if I had found it first instead of the one in Hacienda Heights I would have saved myself so much trouble, aggravation and time!I say "at last" because I spent one night in the Courtyard in Hacienda Heights and one night in the Doubletree at Ontario Airport and had I found this I would have stayed all 3 nights here. If you find yourself in the City of Industry/Hacienda Heights or Baldwin Park area this should be your first choice for business travel.Newly constructed this 9 story building is not typical of your average Courtyard.  It has an expansive lobby and all the amenities a business traveler needs.   Quick friendly check in.I noticed one of the two elevators was not working when I arrived but after I unpacked and went down for dinner it had been fixed.  The gym, while typical for Courtyard, was immaculate and in excellent order.Dinner at The Bistro got me a 10% discount with a coupon given to me by the front desk clerk.   I had the Hummus and Turkey Ruben sandwich and the service was fast and friendly.The hotel is located just off I-10 and with construction in the area can be a bit of a challenge to reach.  I was on the 4th floor and faced the back of the hotel which sits in between I-10 and a neighborhood of single family houses.   it's a peculiar piece of real estate which I suspect accounts for the build up of 9 floors rather than the more traditional "courtyard" 3 story square building setting.I had some problems with dogs barking from the single family homes but I turned on the fan and created some white noise to drown it out.  If I go back again, I'll request a high floor and maybe one facing I-10.  Not sure if that is any better though.All in all, a great business hotel with friendly staff that is new and clean and sparkling!MoreShow less</t>
+  </si>
+  <si>
+    <t>I found this hotel at last and if I had found it first instead of the one in Hacienda Heights I would have saved myself so much trouble, aggravation and time!
+I say "at last" because I spent one night in the Courtyard in Hacienda Heights and one night in the Doubletree at Ontario Airport and had I found this I would have stayed all 3 nights here. 
+If you find yourself in the City of Industry/Hacienda Heights or Baldwin Park area this should be your first choice for business travel.
+Newly constructed this 9 story building is not typical of your average Courtyard.  It has an expansive lobby and all the amenities a business traveler needs.   Quick friendly check in.
+I noticed one of the two elevators was not working when I arrived but after I unpacked and went down for dinner it had been fixed.  The gym, while typical for Courtyard, was immaculate and in excellent order.
+Dinner at The Bistro got me a 10% discount with a coupon given to me by the front desk clerk.   I had the Hummus and Turkey Ruben sandwich and the service was fast and friendly.
+The hotel is located just off I-10 and with construction in the area can be a bit of a challenge to reach.  I was on the 4th floor and faced the back of the hotel which sits in between I-10 and a neighborhood of single family...I found this hotel at last and if I had found it first instead of the one in Hacienda Heights I would have saved myself so much trouble, aggravation and time!I say "at last" because I spent one night in the Courtyard in Hacienda Heights and one night in the Doubletree at Ontario Airport and had I found this I would have stayed all 3 nights here. If you find yourself in the City of Industry/Hacienda Heights or Baldwin Park area this should be your first choice for business travel.Newly constructed this 9 story building is not typical of your average Courtyard.  It has an expansive lobby and all the amenities a business traveler needs.   Quick friendly check in.I noticed one of the two elevators was not working when I arrived but after I unpacked and went down for dinner it had been fixed.  The gym, while typical for Courtyard, was immaculate and in excellent order.Dinner at The Bistro got me a 10% discount with a coupon given to me by the front desk clerk.   I had the Hummus and Turkey Ruben sandwich and the service was fast and friendly.The hotel is located just off I-10 and with construction in the area can be a bit of a challenge to reach.  I was on the 4th floor and faced the back of the hotel which sits in between I-10 and a neighborhood of single family houses.   it's a peculiar piece of real estate which I suspect accounts for the build up of 9 floors rather than the more traditional "courtyard" 3 story square building setting.I had some problems with dogs barking from the single family homes but I turned on the fan and created some white noise to drown it out.  If I go back again, I'll request a high floor and maybe one facing I-10.  Not sure if that is any better though.All in all, a great business hotel with friendly staff that is new and clean and sparkling!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r270485577-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>270485577</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Nice lobby but horrible sleep</t>
+  </si>
+  <si>
+    <t>Brand new lobby was a nice touch. Decent size room with aging bathroom. One major complaint is the sleep quality...the AC is so loud, both my wife and I can only get 20-30 mins of sleep at a time if we want a comfortable temp.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded May 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2015</t>
+  </si>
+  <si>
+    <t>Brand new lobby was a nice touch. Decent size room with aging bathroom. One major complaint is the sleep quality...the AC is so loud, both my wife and I can only get 20-30 mins of sleep at a time if we want a comfortable temp.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r264326264-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>264326264</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed at CY for 1 night during a tour we took and our experience was awesome.There's a complete restaurant, pool area is great with and hydromassage small pool in there. Rooms are clean, staff is really nice. Beautiful place to stay during your stay in BP.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r264204506-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>264204506</t>
+  </si>
+  <si>
+    <t>A good night's sleep in a good Hotel</t>
+  </si>
+  <si>
+    <t>We had just arrived in Los Angeles and on our way to Dessert  Hot Springs we thought to stop  for the night at Baldwin Park. Upon arrival at the Hotel's reception we realized that the rate we had found on the net was much better than what it was offered by the Hotel so we booked through the net and came back for check in.Staff in the reception were quite friendly and professional and explained everything to us so that we had a good stay.The room was quite big and comfortable. Beds and mattress excellent. All the amenities were provided included complimentary Wi Fi, overall we had an excellent stay.If we compare Courtyard Marriott with other chains that we stayed in our trip. Courtyard Marriott were top but not complimentary breakfast offered to us.We think they should!!!This is our only recommendation.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had just arrived in Los Angeles and on our way to Dessert  Hot Springs we thought to stop  for the night at Baldwin Park. Upon arrival at the Hotel's reception we realized that the rate we had found on the net was much better than what it was offered by the Hotel so we booked through the net and came back for check in.Staff in the reception were quite friendly and professional and explained everything to us so that we had a good stay.The room was quite big and comfortable. Beds and mattress excellent. All the amenities were provided included complimentary Wi Fi, overall we had an excellent stay.If we compare Courtyard Marriott with other chains that we stayed in our trip. Courtyard Marriott were top but not complimentary breakfast offered to us.We think they should!!!This is our only recommendation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r257583575-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>257583575</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>If you need accommodations for freezer bags for medical reasons do not stay here.</t>
+  </si>
+  <si>
+    <t>I have been at 2 other marriotts in the last 2 weeks and had no problems with them accomodating me to put my freezer bags in a plastic bag and to store in their freezer. The ones in the room are too small. However when I stayed here they said it was against policy and wouldn't. Didn't offer an apology or explanation. This is often a request of mothers who travel and need to express and store milk. Very disappointed and do not reccommend this place for anyone needing this accomodation for medical purposes. MoreShow less</t>
+  </si>
+  <si>
+    <t>Henry Z, Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded March 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2015</t>
+  </si>
+  <si>
+    <t>I have been at 2 other marriotts in the last 2 weeks and had no problems with them accomodating me to put my freezer bags in a plastic bag and to store in their freezer. The ones in the room are too small. However when I stayed here they said it was against policy and wouldn't. Didn't offer an apology or explanation. This is often a request of mothers who travel and need to express and store milk. Very disappointed and do not reccommend this place for anyone needing this accomodation for medical purposes. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r251234902-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>251234902</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>No Hot Water</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times in the past and have always been very happy with our stay.  However, this wasn't the case with our stay last weekend........We checked in Friday evening and when showering on Saturday morning, the water was barely lukewarm. The water in the sink was a brown/rusty color when you first ran the water.   When inquiring at the front desk, we were told that the entire hotel was having problems, that a part was on order and they weren't sure when the problem would be fixed.   I was told to let the water run for 5-10 minutes and it would probably get hot (it didn't).  So in a state where there is a severe water shortage, that seemed to be a strange request.  Also, I would imagine that it would be hard for the Housekeeping staff to properly clean the rooms for the next guests without hot water!!  Given the health issues that arise when cleaning rooms, doing laundry and washing dishes with lukewarm/cold water, I am wondering if it would have been best to not accept guests until the problem was fixed.  Their explanation was that they were waiting on a part to arrive and I was told on Friday that it probably wouldn't be fixed until after the holiday.  Bad management all the way around on this one!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times in the past and have always been very happy with our stay.  However, this wasn't the case with our stay last weekend........We checked in Friday evening and when showering on Saturday morning, the water was barely lukewarm. The water in the sink was a brown/rusty color when you first ran the water.   When inquiring at the front desk, we were told that the entire hotel was having problems, that a part was on order and they weren't sure when the problem would be fixed.   I was told to let the water run for 5-10 minutes and it would probably get hot (it didn't).  So in a state where there is a severe water shortage, that seemed to be a strange request.  Also, I would imagine that it would be hard for the Housekeeping staff to properly clean the rooms for the next guests without hot water!!  Given the health issues that arise when cleaning rooms, doing laundry and washing dishes with lukewarm/cold water, I am wondering if it would have been best to not accept guests until the problem was fixed.  Their explanation was that they were waiting on a part to arrive and I was told on Friday that it probably wouldn't be fixed until after the holiday.  Bad management all the way around on this one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r238360946-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>238360946</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Mostly met our last minute needs</t>
+  </si>
+  <si>
+    <t>Stayed here for the weekend of a family funeral, when everything other hotel was booked solid or cost twice as much. Pleasantly surprised that we had a lovely view of the mountains (ask for that side or you'll be looking at rooftops and parking lot). King room was clean, spacious and comfortable. Nice to have the convenience of a Starbucks/bar/breakfast cafe right in the hotel, especially since there's not a lot of nicer restaurant options in the immediate area.  Our one big disappointment was at check-in. I'd called the day before to request early check-in, as we needed to get to a funeral-related family event, and was told they'd try to have our rooms available at 11:00. At our arrival shortly past noon, one room was ready and we were told the other would be ready "soon". I again explained our situation, plus the fact that we were exhausted due to the prior 12 hours of travel, and that we'd would love to catch a nap before our obligations. We then waited over 3 HOURS before the room was finally cleaned - later than their normal check-in time of 3:00.  The front desk staff were friendly and tried to be helpful, but we were not impressed that no special effort was made by housekeeping under these circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for the weekend of a family funeral, when everything other hotel was booked solid or cost twice as much. Pleasantly surprised that we had a lovely view of the mountains (ask for that side or you'll be looking at rooftops and parking lot). King room was clean, spacious and comfortable. Nice to have the convenience of a Starbucks/bar/breakfast cafe right in the hotel, especially since there's not a lot of nicer restaurant options in the immediate area.  Our one big disappointment was at check-in. I'd called the day before to request early check-in, as we needed to get to a funeral-related family event, and was told they'd try to have our rooms available at 11:00. At our arrival shortly past noon, one room was ready and we were told the other would be ready "soon". I again explained our situation, plus the fact that we were exhausted due to the prior 12 hours of travel, and that we'd would love to catch a nap before our obligations. We then waited over 3 HOURS before the room was finally cleaned - later than their normal check-in time of 3:00.  The front desk staff were friendly and tried to be helpful, but we were not impressed that no special effort was made by housekeeping under these circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r228803256-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>228803256</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Very reasonable hotel</t>
+  </si>
+  <si>
+    <t>Stayed on a saturday night hotel was booked out due to the 1d concert at the rose bowl but it was still close enough to the venue  Very quiet staff was awesome and they have starbucks coffee close to restaurants walmart etc shoppingMoreShow less</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Stayed on a saturday night hotel was booked out due to the 1d concert at the rose bowl but it was still close enough to the venue  Very quiet staff was awesome and they have starbucks coffee close to restaurants walmart etc shoppingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r222501397-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>222501397</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Basic Courtyard rooms and very clean. Convenient to the EAST side of the County..... and also relatively quick (reverse commute) to the Ontario airport. I am a returning guest and consistently find the Breakfast Bistro crew as VERY slow.... and sometimes the orders are incorrect. I've observed some customers simply cancel their order because they can't wait any longer. Not much to eat in Baldwin Park, and suggested direction for restaurants is west-- toward West Covina... but be aware of commuter traffic. A ten-minute drive could easily become 45-50 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Henry Z, Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Basic Courtyard rooms and very clean. Convenient to the EAST side of the County..... and also relatively quick (reverse commute) to the Ontario airport. I am a returning guest and consistently find the Breakfast Bistro crew as VERY slow.... and sometimes the orders are incorrect. I've observed some customers simply cancel their order because they can't wait any longer. Not much to eat in Baldwin Park, and suggested direction for restaurants is west-- toward West Covina... but be aware of commuter traffic. A ten-minute drive could easily become 45-50 minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r221208849-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>221208849</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Bed was comfortable and our room was clean.  I would have given a 5 star if the ice box was cleaned.  I also like it that the hotel no longer put stuff in the fridge.  It is now left clean and empty which is very considerate of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Bed was comfortable and our room was clean.  I would have given a 5 star if the ice box was cleaned.  I also like it that the hotel no longer put stuff in the fridge.  It is now left clean and empty which is very considerate of them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r207508964-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>207508964</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Fine rooms, so-so service</t>
+  </si>
+  <si>
+    <t>I was in town for a funeral, and I stayed here mostly because my dad had hotel points. We had three rooms and they were all fine: spacious, very clean, nice view of the residential neighborhood. The small cafe in the lobby offered a decent breakfast (egg sandwiches, french toast, coffee, pastries), and we visited the bar a few times in the evening and liked the comfortable seating and booths in the back room. My biggest issue with this hotel was the service. When I checked in and asked for help with my luggage, the receptionist pointed at a heavy luggage cart, implying that I should help myself. (I understand if the hotel does not provide this amenity, but a sincere explanation would've been nice.) When I tried to print out the funeral eulogy in the business center, the staff told me the wrong information, twice, about how to work the printer. Upon checkout, we found out we'd been overcharged for one of the rooms. It took about an hour to sort things out. The location of this hotel is excellent if you have business or other activities nearby, but I left with the feeling that the guests are an afterthought.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>I was in town for a funeral, and I stayed here mostly because my dad had hotel points. We had three rooms and they were all fine: spacious, very clean, nice view of the residential neighborhood. The small cafe in the lobby offered a decent breakfast (egg sandwiches, french toast, coffee, pastries), and we visited the bar a few times in the evening and liked the comfortable seating and booths in the back room. My biggest issue with this hotel was the service. When I checked in and asked for help with my luggage, the receptionist pointed at a heavy luggage cart, implying that I should help myself. (I understand if the hotel does not provide this amenity, but a sincere explanation would've been nice.) When I tried to print out the funeral eulogy in the business center, the staff told me the wrong information, twice, about how to work the printer. Upon checkout, we found out we'd been overcharged for one of the rooms. It took about an hour to sort things out. The location of this hotel is excellent if you have business or other activities nearby, but I left with the feeling that the guests are an afterthought.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r204561444-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>204561444</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Stayed in LA... Convenient location</t>
+  </si>
+  <si>
+    <t>Went to visit friends in family in West Covina and San Dimas. The hotel is located close to restaurants and coffee shops. Very near to the iconic In-N-Out burger of Baldwin Park. I requested for an early check in but the hotel was packed, so I have to wait till 3pm. Hassle free check in and check out. Loved the location. A definite return is expected in this hotel. Staff were friendly and helpful.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r203909918-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>203909918</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would give a 3.5 if I could! </t>
+  </si>
+  <si>
+    <t>Oh, I wanted to love this place. The location is pretty convenient - close to restaurants and a pretty nice mall. The staff members I encountered were friendly but there were just little things about our room that made it just a little less than a "very good" stay. The room was nice, but the bathroom could use a make-over. Why? The toilet is sooooo low and the toilet paper dispenser is far away! My husband complained that it was like sitting on a potty-training toilet...and it was a pretty accurate description. Also the shower/tub combo didn't drain properly so my feet were submersed in water while I showered. Didn't eat at the Bistro or use the pool or hot tub, so I can't comment on that. Our room had a fridge and an ok sized TV, pretty standard. Not a bad stay overall, the place just could use a little bit of improvement to make it top notch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Oh, I wanted to love this place. The location is pretty convenient - close to restaurants and a pretty nice mall. The staff members I encountered were friendly but there were just little things about our room that made it just a little less than a "very good" stay. The room was nice, but the bathroom could use a make-over. Why? The toilet is sooooo low and the toilet paper dispenser is far away! My husband complained that it was like sitting on a potty-training toilet...and it was a pretty accurate description. Also the shower/tub combo didn't drain properly so my feet were submersed in water while I showered. Didn't eat at the Bistro or use the pool or hot tub, so I can't comment on that. Our room had a fridge and an ok sized TV, pretty standard. Not a bad stay overall, the place just could use a little bit of improvement to make it top notch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r193982446-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>193982446</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>A Good Stop!</t>
+  </si>
+  <si>
+    <t>Upon arrival we learned that we would be entitled to breakfast coupons!  They have a Starbucks stand on site and they serve breakfast out of there as well.  Hotel was clean, staff friendly, location was an easy on-off the highway.  Microwave in room upon request.  Refrigerators in all rooms.  Beautiful sunrise seen from front corner room!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded February 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2014</t>
+  </si>
+  <si>
+    <t>Upon arrival we learned that we would be entitled to breakfast coupons!  They have a Starbucks stand on site and they serve breakfast out of there as well.  Hotel was clean, staff friendly, location was an easy on-off the highway.  Microwave in room upon request.  Refrigerators in all rooms.  Beautiful sunrise seen from front corner room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r192752133-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>192752133</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>Good comfort during business trip</t>
+  </si>
+  <si>
+    <t>Located in the Towne center of Baldwin park, has got very nice rooms and friendly staff. Has some good view of the LA, surrounding hills. Nice to get snaps during dawn and dusk. Fitness room and swimming pool is much better than hotels of the same class.Food is very costly and needs improvements. There is a Denny's and Mexican grill, which will be better substitute for food rather than the one inside.Big business centres and high speed internet, makes it ideal for business trips or holiday rental.MoreShow less</t>
+  </si>
+  <si>
+    <t>Located in the Towne center of Baldwin park, has got very nice rooms and friendly staff. Has some good view of the LA, surrounding hills. Nice to get snaps during dawn and dusk. Fitness room and swimming pool is much better than hotels of the same class.Food is very costly and needs improvements. There is a Denny's and Mexican grill, which will be better substitute for food rather than the one inside.Big business centres and high speed internet, makes it ideal for business trips or holiday rental.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r191284748-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>191284748</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>one of the best courtyard</t>
+  </si>
+  <si>
+    <t>the hotel was simply very good. very good location - loads of resturant around. the room quality is good and the ambience fantastic. the reception folks were warm and friendly. it's a true business hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Henry Z, General Manager at Courtyard Los Angeles Baldwin Park, responded to this reviewResponded February 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2014</t>
+  </si>
+  <si>
+    <t>the hotel was simply very good. very good location - loads of resturant around. the room quality is good and the ambience fantastic. the reception folks were warm and friendly. it's a true business hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r177006013-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>177006013</t>
+  </si>
+  <si>
+    <t>09/13/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clean hotel.  Friendly service. I decided to extend my stay a night as a result.  Sizzler, mex, McDonald's and Asian food within walking distance.  Used it as a springboard for Disneyland and universal.  About a 30 min drive to each if you miss traffic. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r174741231-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>174741231</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Nice place, great value!</t>
+  </si>
+  <si>
+    <t>We stayed here one night in a 2 queen room on the 4th floor.  We were in town for a Dodger game and it is relatively close.  Clean, quiet and updated.  Convenient to the freeway and dining options nearby.  I booked this on Hotwire and got an amazing price.  I think we'll be going to another game this season and I would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r168710703-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>168710703</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>We chose this hotel based on the proximity to our cousins house.  We were there for a family reunion.  We were pleasantly surprise at how nice the hotel was.  And we got a very good rate for it too-worth every penny!  We had several rooms and they were all very nice and clean.  The lobby is quite impressive.  The staff were very nice too.  We would definite stay here again if ever we should be n the area again.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r160753161-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>160753161</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel, great people, and upgraded rooms</t>
+  </si>
+  <si>
+    <t>I read the unfavorable ratings on this hotel.  I didn't find any of the problems that the reviews identified.  This is a high risk hotel directly on I-10.  Naturally common sense would tell you to get a room AWAY from the highway on a high floor.  I was on the 8th floor in a corner room and had no noise.  Water pressure was fine and the air conditioner was cold.  The bed was comfortable.  The staff at the Bistro were wonderful and always helpful.  I experienced no problems here.  I would recommend this hotel to anyone.  I lucked out on a smogless day and had a direct view of the mountains.  Mountain View not guaranteed... depends on the Smog and Santa Ana winds.  The only problem is that there are no good restaurants close to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I read the unfavorable ratings on this hotel.  I didn't find any of the problems that the reviews identified.  This is a high risk hotel directly on I-10.  Naturally common sense would tell you to get a room AWAY from the highway on a high floor.  I was on the 8th floor in a corner room and had no noise.  Water pressure was fine and the air conditioner was cold.  The bed was comfortable.  The staff at the Bistro were wonderful and always helpful.  I experienced no problems here.  I would recommend this hotel to anyone.  I lucked out on a smogless day and had a direct view of the mountains.  Mountain View not guaranteed... depends on the Smog and Santa Ana winds.  The only problem is that there are no good restaurants close to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r159257751-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>159257751</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Nice place in a very convenient location</t>
+  </si>
+  <si>
+    <t>I stayed here a couple of nights with family and had no problems. The hotel is very nice and the room had everything we needed. It was clean and everything was in working order. There are plenty of nearby restaurants and even a Home Depot if you get the urge to buy some power tools and build something. :)  The staff is good and you are right by the freeway, so you can get around town easily.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r154536909-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>154536909</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>The staff at this hotel are very well trained and displayed excellent customer service.   Check in and out were very easy.   We were given a newy remodled room and it was very nice.  Excellent hotel for the price.  Next to freeway but without the freeway noice.   Will go back again if in the area.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r148896514-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>148896514</t>
+  </si>
+  <si>
+    <t>01/05/2013</t>
+  </si>
+  <si>
+    <t>Clean and great for the area</t>
+  </si>
+  <si>
+    <t>This hotel is use as a stop over for many Asian tourist. Hotel is use much for wedding receptions and is one of the nicest ones in the area.  Not much choice of name brand hotels for this area. Rooms are small but comfortable. Restaurant serves great food as the breakfast buffet is better than most.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r148829952-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>148829952</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>O.K. jumping off point: between L.A., Orange County and points east…</t>
+  </si>
+  <si>
+    <t>We stay at the Courtyard / Marriott chain allot, and this one is typical of their lay outs.  Nice rooms, comfortable beds, computers down stairs, café with light fair and drinks.  They have free Wi-Fi but we didn’t use it. We have now stayed twice at the Baldwin Park location as it is convenient to family that lives in West Covina.  In our travels we were able to get to Disneyland in 40 minutes, although with traffic it could take an hour.  We also were able to get to the Ontario Airport in 20 minutes on two separate occasions.  Hollywood and downtown Los Angeles has taken us about 30 minutes to get to on a good day.  As you can see we’re going a lot of OTHER places while staying at this hotel.  The immediate area is crowded and felt less-than-secure outside.  I would not be outside by myself at night if possible. The hotel itself, although seen from the 10 freeway as right there, can be a little tricky to find.  It is next to a large Home Depot and behind a Denny’s.  The Denny’s was incredibly slow and I we went there only because we were desperate after the café in the hotel took so long to do expensive eggs and toast.  There was the usual small frig in two of our rooms, but not in the room of our traveling companions.  They didn’t need it, but maybe...We stay at the Courtyard / Marriott chain allot, and this one is typical of their lay outs.  Nice rooms, comfortable beds, computers down stairs, café with light fair and drinks.  They have free Wi-Fi but we didn’t use it. We have now stayed twice at the Baldwin Park location as it is convenient to family that lives in West Covina.  In our travels we were able to get to Disneyland in 40 minutes, although with traffic it could take an hour.  We also were able to get to the Ontario Airport in 20 minutes on two separate occasions.  Hollywood and downtown Los Angeles has taken us about 30 minutes to get to on a good day.  As you can see we’re going a lot of OTHER places while staying at this hotel.  The immediate area is crowded and felt less-than-secure outside.  I would not be outside by myself at night if possible. The hotel itself, although seen from the 10 freeway as right there, can be a little tricky to find.  It is next to a large Home Depot and behind a Denny’s.  The Denny’s was incredibly slow and I we went there only because we were desperate after the café in the hotel took so long to do expensive eggs and toast.  There was the usual small frig in two of our rooms, but not in the room of our traveling companions.  They didn’t need it, but maybe check with the hotel to ensure you get one if you do need it.  The hotel has keyed entry to the lobby at night AND to the elevators.  So you need to be sure you have a key on you if you go down to the nice outdoor pool, or you’ll have to get the front desk to come over and key you into the elevator.  Both times we have stayed there have been large conventions and/or parties going on in the ball rooms.  The spill over into the lobby is not a problem as the areas are large enough and we did not hear any of the music or run into any drunken people.   The staff was very friendly and helpful.   This seems to be a stopping off place for a lot of people just traveling the greater Los Angeles area.   There are not many hotels in this area.  I think this is a good one for the experienced traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>We stay at the Courtyard / Marriott chain allot, and this one is typical of their lay outs.  Nice rooms, comfortable beds, computers down stairs, café with light fair and drinks.  They have free Wi-Fi but we didn’t use it. We have now stayed twice at the Baldwin Park location as it is convenient to family that lives in West Covina.  In our travels we were able to get to Disneyland in 40 minutes, although with traffic it could take an hour.  We also were able to get to the Ontario Airport in 20 minutes on two separate occasions.  Hollywood and downtown Los Angeles has taken us about 30 minutes to get to on a good day.  As you can see we’re going a lot of OTHER places while staying at this hotel.  The immediate area is crowded and felt less-than-secure outside.  I would not be outside by myself at night if possible. The hotel itself, although seen from the 10 freeway as right there, can be a little tricky to find.  It is next to a large Home Depot and behind a Denny’s.  The Denny’s was incredibly slow and I we went there only because we were desperate after the café in the hotel took so long to do expensive eggs and toast.  There was the usual small frig in two of our rooms, but not in the room of our traveling companions.  They didn’t need it, but maybe...We stay at the Courtyard / Marriott chain allot, and this one is typical of their lay outs.  Nice rooms, comfortable beds, computers down stairs, café with light fair and drinks.  They have free Wi-Fi but we didn’t use it. We have now stayed twice at the Baldwin Park location as it is convenient to family that lives in West Covina.  In our travels we were able to get to Disneyland in 40 minutes, although with traffic it could take an hour.  We also were able to get to the Ontario Airport in 20 minutes on two separate occasions.  Hollywood and downtown Los Angeles has taken us about 30 minutes to get to on a good day.  As you can see we’re going a lot of OTHER places while staying at this hotel.  The immediate area is crowded and felt less-than-secure outside.  I would not be outside by myself at night if possible. The hotel itself, although seen from the 10 freeway as right there, can be a little tricky to find.  It is next to a large Home Depot and behind a Denny’s.  The Denny’s was incredibly slow and I we went there only because we were desperate after the café in the hotel took so long to do expensive eggs and toast.  There was the usual small frig in two of our rooms, but not in the room of our traveling companions.  They didn’t need it, but maybe check with the hotel to ensure you get one if you do need it.  The hotel has keyed entry to the lobby at night AND to the elevators.  So you need to be sure you have a key on you if you go down to the nice outdoor pool, or you’ll have to get the front desk to come over and key you into the elevator.  Both times we have stayed there have been large conventions and/or parties going on in the ball rooms.  The spill over into the lobby is not a problem as the areas are large enough and we did not hear any of the music or run into any drunken people.   The staff was very friendly and helpful.   This seems to be a stopping off place for a lot of people just traveling the greater Los Angeles area.   There are not many hotels in this area.  I think this is a good one for the experienced traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r146381171-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>146381171</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Near to freeway I-10 , So you will hear continuous traffic sound .. Room service was so good and they are prompt in response . The only drawback i have is there no microwave in the room .. They have a common one in the lobby which i felt little uncomfortable . Overall it was a good stay .</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r144265053-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>144265053</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>At first we were a bit puzzled after knowing the area around baldwin park wasn't safe. Many people around the area encourgaed us to cancel the reservation.Location is great just off the free way and will get you anywhere very fast, yet with no traffic puzzling situations. The Hotel outside had security at night sitting in the parking lot, the street lights were really bright making it really hard to not see what is going on. At night they block everything to only one entrance to ensure guest safety. The property was really new so I have no complaints at all, the room was convenient, the price was right, and the customer service was fine.Didn't get a chance to use the pool but overall it was a good stay didnt' have any problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>At first we were a bit puzzled after knowing the area around baldwin park wasn't safe. Many people around the area encourgaed us to cancel the reservation.Location is great just off the free way and will get you anywhere very fast, yet with no traffic puzzling situations. The Hotel outside had security at night sitting in the parking lot, the street lights were really bright making it really hard to not see what is going on. At night they block everything to only one entrance to ensure guest safety. The property was really new so I have no complaints at all, the room was convenient, the price was right, and the customer service was fine.Didn't get a chance to use the pool but overall it was a good stay didnt' have any problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r143442262-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>143442262</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Great location for San Gabriel Valley</t>
+  </si>
+  <si>
+    <t>We were visiting areas like Pasadena/Glendale/Covina/Glendora (on different days)....so we thought this location would be a good central point.   The hotel lobby is very nice and service at the bar was good.  There are restaurant choices nearby (in the same hotel parking lot/shopping center)...plus the Westfield West Covina mall is very close.   It was a typical Courtyard experience (which is a good thing...you know what to expect...and get it).   Make sure you have address/GPS programmed if coming from the WEST to EAST to find the hotel...you have a make a few unexpected turns/zags once off the SOUTH side of the freeway to get to the hotel on the NORTH side of the freeway!  :)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We were visiting areas like Pasadena/Glendale/Covina/Glendora (on different days)....so we thought this location would be a good central point.   The hotel lobby is very nice and service at the bar was good.  There are restaurant choices nearby (in the same hotel parking lot/shopping center)...plus the Westfield West Covina mall is very close.   It was a typical Courtyard experience (which is a good thing...you know what to expect...and get it).   Make sure you have address/GPS programmed if coming from the WEST to EAST to find the hotel...you have a make a few unexpected turns/zags once off the SOUTH side of the freeway to get to the hotel on the NORTH side of the freeway!  :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r139930989-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>139930989</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>Great place for the area.</t>
+  </si>
+  <si>
+    <t>We were in town for a family gathering nearby.  This hotel was a great place to stay.  Staff were courteous and helpful. The rooms were exceptionally clean.  The pillows werent very comfortable but the beds were just fine. There is plenty of nearby shopping and places to eat.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r135699425-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>135699425</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Stay at Fairfield Inn West Covina over this</t>
+  </si>
+  <si>
+    <t>While the hotel itself is nice and the pool is nice, there are a few oddities to this hotel. The room is very spacious as the bathroom with nice counter space. However if you are using the toilet the paper is three feet away. I have no idea how women would reach it other than standing up. To access the elevator you have to use your room key 24/7. While the room is large, if you are in bed you cannot watch TV. It is located on the side and when you pull it our and turn the screen you lose the signal. Lost the internet signal several times during each use. Having stayed both here and at the Fairfield Inn a few miles away in West Covina, I will stay at the Fairfield Inn from now on when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>While the hotel itself is nice and the pool is nice, there are a few oddities to this hotel. The room is very spacious as the bathroom with nice counter space. However if you are using the toilet the paper is three feet away. I have no idea how women would reach it other than standing up. To access the elevator you have to use your room key 24/7. While the room is large, if you are in bed you cannot watch TV. It is located on the side and when you pull it our and turn the screen you lose the signal. Lost the internet signal several times during each use. Having stayed both here and at the Fairfield Inn a few miles away in West Covina, I will stay at the Fairfield Inn from now on when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r135512543-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>135512543</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Reservation/Accessibility issues</t>
+  </si>
+  <si>
+    <t>See below. Didn 't get a chance to stay due to accessibility issues.I booked a reservation speaking directly to a hotel representative to ensure that I could obtain a room that was 'accessible'. I needed to have a room with a bathroom with handrails. I was assured that my request would be accomodated. When I checked on the website to see the rooms, the room description for two beds stated mobility accessibility was not an option. When I called the hotel directly I was told that the only way I could have an accessible room was with a king size bed. I subsequently had to cancel my reservation. I shudder to think what would have happened had I arrived late in the afternoon to find out my needs could not be met.MoreShow less</t>
+  </si>
+  <si>
+    <t>See below. Didn 't get a chance to stay due to accessibility issues.I booked a reservation speaking directly to a hotel representative to ensure that I could obtain a room that was 'accessible'. I needed to have a room with a bathroom with handrails. I was assured that my request would be accomodated. When I checked on the website to see the rooms, the room description for two beds stated mobility accessibility was not an option. When I called the hotel directly I was told that the only way I could have an accessible room was with a king size bed. I subsequently had to cancel my reservation. I shudder to think what would have happened had I arrived late in the afternoon to find out my needs could not be met.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r132391447-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>132391447</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Great amenities and great service</t>
+  </si>
+  <si>
+    <t>Stayed here with the family when we came to California for a wedding.  It was a little hard to find since we ended up in the Home Depot parking lot thanks to the GPS but after driving around it, found this Hotel.  It is very clean and the staff was friendly.  They have a pool and a restaurant that currently is being renovated.  They also have a small gym with some treadmills, which helped since I needed to stay active.  The place seemed secure since I would see security patrolling the area all the time.  The room was spacious and clean and had a mini-fridge in it.  If I was in the area again, I would stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Stayed here with the family when we came to California for a wedding.  It was a little hard to find since we ended up in the Home Depot parking lot thanks to the GPS but after driving around it, found this Hotel.  It is very clean and the staff was friendly.  They have a pool and a restaurant that currently is being renovated.  They also have a small gym with some treadmills, which helped since I needed to stay active.  The place seemed secure since I would see security patrolling the area all the time.  The room was spacious and clean and had a mini-fridge in it.  If I was in the area again, I would stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r129132389-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>129132389</t>
+  </si>
+  <si>
+    <t>04/30/2012</t>
+  </si>
+  <si>
+    <t>Great breakfast and freindly staff.</t>
+  </si>
+  <si>
+    <t>We booked on Hotels.com and for $5.00 a person we added a breakfast, which was well worth the money.  The room was nice, very roomy and clean. I was told it would have a frig and it didn't, that was a little disappointing. The view was of people's back yards but since were not there to lounge in the hotel, just to sleep and eat breakfast and it defiantly meet our needs and would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r120384741-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>120384741</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Old outdated and not worth more than $65 per night</t>
+  </si>
+  <si>
+    <t>Old, outdated. Our ac didn't get below 74. Noisy, heard people going to the bathroom, coughing etc. Very thin walls.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r119095756-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>119095756</t>
+  </si>
+  <si>
+    <t>10/09/2011</t>
+  </si>
+  <si>
+    <t>Noise Problems at Night</t>
+  </si>
+  <si>
+    <t>Our room was on the 3rd floor.The pool/hot tub area was directly below.There were people mingling there each night until 2-3am.Very loud.Fire alarm was pulled 2 nights in a row.This alarm was false.Unable to be turned off for at least 15 minutes.It went off at 1:30am last night and 3am tonight.All the desk says is we are very sorry.Sleep deprived and won't stay here again.We did have an excellent maid.Will leave her a tip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r116314424-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>116314424</t>
+  </si>
+  <si>
+    <t>08/05/2011</t>
+  </si>
+  <si>
+    <t>A Good Choice</t>
+  </si>
+  <si>
+    <t>Stayed at the Marriott while attending a family funeral at Rose Hills as there were no good options in Whittier. Reservation process via phone w/ Tyler was seamless - even arranged for an early check-in for us. Very clean &amp; comfortable &amp; freeway close (literally along side the 10 Fwy). Would definitely recommend when visiting the SGV area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r115469346-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>115469346</t>
+  </si>
+  <si>
+    <t>07/17/2011</t>
+  </si>
+  <si>
+    <t>Good location, Quiet and Comfortable -Very Nice-Great Job Management!</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel to attend an event in nearby City of Industry and was wonderfully surprised because of the location being right off the freeway. The front desk staff was friendly and helpful from check in through checkout. It was in a great location with good dining options and late night food in walking distance. The room had free internet and had been updated with energy efficient  lighting and sensors, coffee maker and fridge.There was a nice restaurant and bar in the lobby area and although there were events going on downstairs in the hotel, it was nice and quiet. The parking area was well lit and upkept which made me feel safe coming in late at night. This was a great place to stay and is on my list if I have to be in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel to attend an event in nearby City of Industry and was wonderfully surprised because of the location being right off the freeway. The front desk staff was friendly and helpful from check in through checkout. It was in a great location with good dining options and late night food in walking distance. The room had free internet and had been updated with energy efficient  lighting and sensors, coffee maker and fridge.There was a nice restaurant and bar in the lobby area and although there were events going on downstairs in the hotel, it was nice and quiet. The parking area was well lit and upkept which made me feel safe coming in late at night. This was a great place to stay and is on my list if I have to be in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r96332565-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>96332565</t>
+  </si>
+  <si>
+    <t>02/12/2011</t>
+  </si>
+  <si>
+    <t>Definitely the cleanest hotel with the nicest staff!</t>
+  </si>
+  <si>
+    <t>While my husband was there on business, I was there to relax.  The first morning we had breakfast at the lobby restaurant.  The staff was a gem--the manager even asked if he could make our waffles for us then brought them to the table (even though it was a buffet).  They were extremely accommodating.  This is no a one-time-occurrence, either; the next day when we went back, the waiter acted just as hospitable.  The manager even came back to say hello to us.  Just when you think it can't get any better, when we returned to our room, we saw housekeeping cleaning the pool area.  She wiped down EVERY piece of furniture, then a gentleman came out and started scrubbing the jacuzzi.  It gets better...they even cleaned the cleaning bucket with a brush.  This place isn't clean, it's impeccable!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>While my husband was there on business, I was there to relax.  The first morning we had breakfast at the lobby restaurant.  The staff was a gem--the manager even asked if he could make our waffles for us then brought them to the table (even though it was a buffet).  They were extremely accommodating.  This is no a one-time-occurrence, either; the next day when we went back, the waiter acted just as hospitable.  The manager even came back to say hello to us.  Just when you think it can't get any better, when we returned to our room, we saw housekeeping cleaning the pool area.  She wiped down EVERY piece of furniture, then a gentleman came out and started scrubbing the jacuzzi.  It gets better...they even cleaned the cleaning bucket with a brush.  This place isn't clean, it's impeccable!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r83407615-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>83407615</t>
+  </si>
+  <si>
+    <t>10/13/2010</t>
+  </si>
+  <si>
+    <t>It's a pleasant Courtyard Marriott</t>
+  </si>
+  <si>
+    <t>I had no gripes with this place.  Very nice staff, decent breakfast, spacious room.   It wasn't one of the snazzy new Courtyards, but everything was in good shape and it was your standard Courtyard Marriott.   They should upgrade the TVs in the rooms and get faster internet.  Also, it'd be nice to have a more expansive business center whose computers don't have that crappy non-standard software on it.   I'll gladly stay here again, however.  As for the area, I'm not sure what people are expecting.  It's Baldwin Park.   It's a fine are - not Beverly Hills - but not bad by any stretch of the imagination.   For people from outside of LA, though, this may not be convenient if you're on vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>I had no gripes with this place.  Very nice staff, decent breakfast, spacious room.   It wasn't one of the snazzy new Courtyards, but everything was in good shape and it was your standard Courtyard Marriott.   They should upgrade the TVs in the rooms and get faster internet.  Also, it'd be nice to have a more expansive business center whose computers don't have that crappy non-standard software on it.   I'll gladly stay here again, however.  As for the area, I'm not sure what people are expecting.  It's Baldwin Park.   It's a fine are - not Beverly Hills - but not bad by any stretch of the imagination.   For people from outside of LA, though, this may not be convenient if you're on vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r82692570-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>82692570</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>High-rise Courtyard w/ Noise &amp; Water Pressure Issues.</t>
+  </si>
+  <si>
+    <t>Arrived mid-afternoon to check-in to my room, 2 Queens non-smoking. Requested for a room facing the back of the property, but "none were available" at the time. 
+Checked in to a freeway-facing room on the 9th floor and the sounds of the freeway definitely resonated into the room. Attempted to use the bathroom and noticed that there was little water pressure in the sink and insufficient water pressure to use the shower.
+Informed the front desk and they reassured me that an engineer would be on their way and that the lead building engineer is also on it's way to the property, as the hotel is well aware of the issue.
+Upon my return to the hotel in the evening at ~ 11 pm. The water pressure was still poor in my room. Upon notifying the front desk, they informed me that there was no ETA and that all 2 Queens were sold out that evening.
+...they suggested a 1 King Suite facing the freeway, on the 3rd floor. Upon entering the really dark room, the sounds of the freeway along w/ the pool resonated in the hot room. The A/C in the living room was loud and I learned the next morning that the drapes in the bedroom had a 2 inch gap, resulting in being awake as soon as the sun did!
+...despite the troubles of changing rooms, the water pressure still left much to be desired in...Arrived mid-afternoon to check-in to my room, 2 Queens non-smoking. Requested for a room facing the back of the property, but "none were available" at the time. Checked in to a freeway-facing room on the 9th floor and the sounds of the freeway definitely resonated into the room. Attempted to use the bathroom and noticed that there was little water pressure in the sink and insufficient water pressure to use the shower.Informed the front desk and they reassured me that an engineer would be on their way and that the lead building engineer is also on it's way to the property, as the hotel is well aware of the issue.Upon my return to the hotel in the evening at ~ 11 pm. The water pressure was still poor in my room. Upon notifying the front desk, they informed me that there was no ETA and that all 2 Queens were sold out that evening....they suggested a 1 King Suite facing the freeway, on the 3rd floor. Upon entering the really dark room, the sounds of the freeway along w/ the pool resonated in the hot room. The A/C in the living room was loud and I learned the next morning that the drapes in the bedroom had a 2 inch gap, resulting in being awake as soon as the sun did!...despite the troubles of changing rooms, the water pressure still left much to be desired in the suite...MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived mid-afternoon to check-in to my room, 2 Queens non-smoking. Requested for a room facing the back of the property, but "none were available" at the time. 
+Checked in to a freeway-facing room on the 9th floor and the sounds of the freeway definitely resonated into the room. Attempted to use the bathroom and noticed that there was little water pressure in the sink and insufficient water pressure to use the shower.
+Informed the front desk and they reassured me that an engineer would be on their way and that the lead building engineer is also on it's way to the property, as the hotel is well aware of the issue.
+Upon my return to the hotel in the evening at ~ 11 pm. The water pressure was still poor in my room. Upon notifying the front desk, they informed me that there was no ETA and that all 2 Queens were sold out that evening.
+...they suggested a 1 King Suite facing the freeway, on the 3rd floor. Upon entering the really dark room, the sounds of the freeway along w/ the pool resonated in the hot room. The A/C in the living room was loud and I learned the next morning that the drapes in the bedroom had a 2 inch gap, resulting in being awake as soon as the sun did!
+...despite the troubles of changing rooms, the water pressure still left much to be desired in...Arrived mid-afternoon to check-in to my room, 2 Queens non-smoking. Requested for a room facing the back of the property, but "none were available" at the time. Checked in to a freeway-facing room on the 9th floor and the sounds of the freeway definitely resonated into the room. Attempted to use the bathroom and noticed that there was little water pressure in the sink and insufficient water pressure to use the shower.Informed the front desk and they reassured me that an engineer would be on their way and that the lead building engineer is also on it's way to the property, as the hotel is well aware of the issue.Upon my return to the hotel in the evening at ~ 11 pm. The water pressure was still poor in my room. Upon notifying the front desk, they informed me that there was no ETA and that all 2 Queens were sold out that evening....they suggested a 1 King Suite facing the freeway, on the 3rd floor. Upon entering the really dark room, the sounds of the freeway along w/ the pool resonated in the hot room. The A/C in the living room was loud and I learned the next morning that the drapes in the bedroom had a 2 inch gap, resulting in being awake as soon as the sun did!...despite the troubles of changing rooms, the water pressure still left much to be desired in the suite...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r75536400-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>75536400</t>
+  </si>
+  <si>
+    <t>08/16/2010</t>
+  </si>
+  <si>
+    <t>good hotel, bad surroundings</t>
+  </si>
+  <si>
+    <t>This hotel was close to a client of mine so I decided to stay somewhat close so I could get there in the morning with out fighting the LA traffic.  The area in and around the hotel, isn't horrible but it isn't really nice either.  I was hoping to walk to a restaurant close by but decided to stay in the hotel and eat at the bar.  The food was great, the service was great...no problems.  My room was clean, Internet was above average, it was what I expected in a courtyard room.  The breakfast buffet was very good, again the service was good no problem.  In the end if you are looking for convenience this is hotel is fine, but if you are looking to get out of the hotel at night and walk around this is not a great place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>This hotel was close to a client of mine so I decided to stay somewhat close so I could get there in the morning with out fighting the LA traffic.  The area in and around the hotel, isn't horrible but it isn't really nice either.  I was hoping to walk to a restaurant close by but decided to stay in the hotel and eat at the bar.  The food was great, the service was great...no problems.  My room was clean, Internet was above average, it was what I expected in a courtyard room.  The breakfast buffet was very good, again the service was good no problem.  In the end if you are looking for convenience this is hotel is fine, but if you are looking to get out of the hotel at night and walk around this is not a great place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r22096057-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>22096057</t>
+  </si>
+  <si>
+    <t>11/22/2008</t>
+  </si>
+  <si>
+    <t>Slightly over-rated on this site</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel Nov. 17-21, 2008 in a King room (room 404).  People who have written reviews may be just slightly too kind.  Let me try to present a full picture:
+     The pros:  The staff ARE friendly and try to be helpful.  The hotel is clean, modern, and for a Courtyward, a bit nicer than the average Courtyard.  My room was exceptionally large, very clean, a nice comfortable bed, and very clean bathroom!  I ate all of my breakfasts and dinners at Emilio's and the food there was fairly good (better than Sizzler quality) and the prices were actually fair for what you got.  
+     The cons:  After my first night (I left the room at 8:15AM and returned at 5:45PM) the maid never touched the room.  And it was too late to have it cleaned.  I chose not to say anything as I wasn't interested in getting someone in trouble for what was probably just an oversight.  
+     On Day Three, I needed a Bank of America ATM.  The lady at the front desk sent me clear up to Walnut as the closest BofA (8 miles away).  Turned out there was one about one mile away up on Ramona Ave.  I was stuck on I-10 for 45 minutes just to get to the ATM she directed me to.  
+     The wireless connection in the room is not that great.  Several times, I had no connectivity at all.  In the AM,...I stayed at this hotel Nov. 17-21, 2008 in a King room (room 404).  People who have written reviews may be just slightly too kind.  Let me try to present a full picture:     The pros:  The staff ARE friendly and try to be helpful.  The hotel is clean, modern, and for a Courtyward, a bit nicer than the average Courtyard.  My room was exceptionally large, very clean, a nice comfortable bed, and very clean bathroom!  I ate all of my breakfasts and dinners at Emilio's and the food there was fairly good (better than Sizzler quality) and the prices were actually fair for what you got.       The cons:  After my first night (I left the room at 8:15AM and returned at 5:45PM) the maid never touched the room.  And it was too late to have it cleaned.  I chose not to say anything as I wasn't interested in getting someone in trouble for what was probably just an oversight.       On Day Three, I needed a Bank of America ATM.  The lady at the front desk sent me clear up to Walnut as the closest BofA (8 miles away).  Turned out there was one about one mile away up on Ramona Ave.  I was stuck on I-10 for 45 minutes just to get to the ATM she directed me to.       The wireless connection in the room is not that great.  Several times, I had no connectivity at all.  In the AM, it was great!  Most connectivity problems were in the PM.     So to summarize, this is NOT the Camelot that many seem to describe it as.  It's absolutely not a pit either!  Would I return to this particular hotel if I needed to be in this vicinity....probably yes (Baldwin Park/El Monte is a "dodgey" area and this is the nicest hotel in the immediate area...unless you're willing to drive to Pasadena).  Would I tell me friends that this is THE hotel to stay at if in the Greater LA area...absolutely not.  If you need to be in this area and can get a room for under $100 per night, is it worth is?...probably.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel Nov. 17-21, 2008 in a King room (room 404).  People who have written reviews may be just slightly too kind.  Let me try to present a full picture:
+     The pros:  The staff ARE friendly and try to be helpful.  The hotel is clean, modern, and for a Courtyward, a bit nicer than the average Courtyard.  My room was exceptionally large, very clean, a nice comfortable bed, and very clean bathroom!  I ate all of my breakfasts and dinners at Emilio's and the food there was fairly good (better than Sizzler quality) and the prices were actually fair for what you got.  
+     The cons:  After my first night (I left the room at 8:15AM and returned at 5:45PM) the maid never touched the room.  And it was too late to have it cleaned.  I chose not to say anything as I wasn't interested in getting someone in trouble for what was probably just an oversight.  
+     On Day Three, I needed a Bank of America ATM.  The lady at the front desk sent me clear up to Walnut as the closest BofA (8 miles away).  Turned out there was one about one mile away up on Ramona Ave.  I was stuck on I-10 for 45 minutes just to get to the ATM she directed me to.  
+     The wireless connection in the room is not that great.  Several times, I had no connectivity at all.  In the AM,...I stayed at this hotel Nov. 17-21, 2008 in a King room (room 404).  People who have written reviews may be just slightly too kind.  Let me try to present a full picture:     The pros:  The staff ARE friendly and try to be helpful.  The hotel is clean, modern, and for a Courtyward, a bit nicer than the average Courtyard.  My room was exceptionally large, very clean, a nice comfortable bed, and very clean bathroom!  I ate all of my breakfasts and dinners at Emilio's and the food there was fairly good (better than Sizzler quality) and the prices were actually fair for what you got.       The cons:  After my first night (I left the room at 8:15AM and returned at 5:45PM) the maid never touched the room.  And it was too late to have it cleaned.  I chose not to say anything as I wasn't interested in getting someone in trouble for what was probably just an oversight.       On Day Three, I needed a Bank of America ATM.  The lady at the front desk sent me clear up to Walnut as the closest BofA (8 miles away).  Turned out there was one about one mile away up on Ramona Ave.  I was stuck on I-10 for 45 minutes just to get to the ATM she directed me to.       The wireless connection in the room is not that great.  Several times, I had no connectivity at all.  In the AM, it was great!  Most connectivity problems were in the PM.     So to summarize, this is NOT the Camelot that many seem to describe it as.  It's absolutely not a pit either!  Would I return to this particular hotel if I needed to be in this vicinity....probably yes (Baldwin Park/El Monte is a "dodgey" area and this is the nicest hotel in the immediate area...unless you're willing to drive to Pasadena).  Would I tell me friends that this is THE hotel to stay at if in the Greater LA area...absolutely not.  If you need to be in this area and can get a room for under $100 per night, is it worth is?...probably.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r21080881-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>21080881</t>
+  </si>
+  <si>
+    <t>10/21/2008</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>Staff was very helpful when checking-in.  Clean rooms, free wireless, best rates in surrounding area.  Hotel is right off the freeway, so there is some road noise.  Also, try the Mexican restauraunt across the parking lot.  Excellent!  Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r19114683-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>19114683</t>
+  </si>
+  <si>
+    <t>08/19/2008</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Not As Nice Area</t>
+  </si>
+  <si>
+    <t>My family stayed at this Courtyard for a week in July. The hotel is very nice and well kept with very helpful staff. We had a probelm with our door (it wouldn't lock) multiple times during our stay, and a repairman was always more than happy to come and help us out. The pool is nice, as is the courtyard. The breakfast was also good for a hotel, but nothing fancy (buffet). This hotel was conveniently located nearby a shopping center (down the road) and Mt. San Antonio College. However, it was not at all relaxing to see security guards patroling the parking lots constantly. The surrounding area seemed very run down, and there is apparently high crime in the area. Other than that, if I was ever back in the area, I would stay in this hotel without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>My family stayed at this Courtyard for a week in July. The hotel is very nice and well kept with very helpful staff. We had a probelm with our door (it wouldn't lock) multiple times during our stay, and a repairman was always more than happy to come and help us out. The pool is nice, as is the courtyard. The breakfast was also good for a hotel, but nothing fancy (buffet). This hotel was conveniently located nearby a shopping center (down the road) and Mt. San Antonio College. However, it was not at all relaxing to see security guards patroling the parking lots constantly. The surrounding area seemed very run down, and there is apparently high crime in the area. Other than that, if I was ever back in the area, I would stay in this hotel without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r13921892-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>13921892</t>
+  </si>
+  <si>
+    <t>02/28/2008</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>This is a nice property located on the westbound side of I-10, which you can hear from a room on that side.  But since I'll take that over a blaring TV or screaming kids, it didn't bother me.
+Check-in was easy, though because it was late at night, the front door was locked.  But the clerk quickly came to let me in. 
+The room was clean and comfortable -- what you would expect from a Courtyard.  There's a Wal-Mart SuperCenter down the street for anything you could possibly need.
+About 5 minutes away is the Baldwin Park Metrolink train station, which has frequent service weekday mornings to Union Station.  It was well worth the $10.50 roundtrip and $3 parking to avoid the bumper-to-bumper on I-10.
+My only complaint is that unlike so many other hotels today, there was no free computer to use in the lobby.  Oh there was a computer -- which you could use for $3 a pop.  C'mon -- at $132 a night, what's the big deal about letting folks check e-mail or print a boarding pass?  The next night I saw the same thing at the Marriott Suites in Anaheim.  Maybe it's the same franchisee.
+And for those approaching the hotel by driving eastbound on I-10, a word of warning: Google maps sends you in a way that will have you turning into a Home Depot.  The hotel is behind the store, and you can reach...This is a nice property located on the westbound side of I-10, which you can hear from a room on that side.  But since I'll take that over a blaring TV or screaming kids, it didn't bother me.Check-in was easy, though because it was late at night, the front door was locked.  But the clerk quickly came to let me in. The room was clean and comfortable -- what you would expect from a Courtyard.  There's a Wal-Mart SuperCenter down the street for anything you could possibly need.About 5 minutes away is the Baldwin Park Metrolink train station, which has frequent service weekday mornings to Union Station.  It was well worth the $10.50 roundtrip and $3 parking to avoid the bumper-to-bumper on I-10.My only complaint is that unlike so many other hotels today, there was no free computer to use in the lobby.  Oh there was a computer -- which you could use for $3 a pop.  C'mon -- at $132 a night, what's the big deal about letting folks check e-mail or print a boarding pass?  The next night I saw the same thing at the Marriott Suites in Anaheim.  Maybe it's the same franchisee.And for those approaching the hotel by driving eastbound on I-10, a word of warning: Google maps sends you in a way that will have you turning into a Home Depot.  The hotel is behind the store, and you can reach it at the end of the parking lot, but there's no Courtyard sign at that entrance.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>This is a nice property located on the westbound side of I-10, which you can hear from a room on that side.  But since I'll take that over a blaring TV or screaming kids, it didn't bother me.
+Check-in was easy, though because it was late at night, the front door was locked.  But the clerk quickly came to let me in. 
+The room was clean and comfortable -- what you would expect from a Courtyard.  There's a Wal-Mart SuperCenter down the street for anything you could possibly need.
+About 5 minutes away is the Baldwin Park Metrolink train station, which has frequent service weekday mornings to Union Station.  It was well worth the $10.50 roundtrip and $3 parking to avoid the bumper-to-bumper on I-10.
+My only complaint is that unlike so many other hotels today, there was no free computer to use in the lobby.  Oh there was a computer -- which you could use for $3 a pop.  C'mon -- at $132 a night, what's the big deal about letting folks check e-mail or print a boarding pass?  The next night I saw the same thing at the Marriott Suites in Anaheim.  Maybe it's the same franchisee.
+And for those approaching the hotel by driving eastbound on I-10, a word of warning: Google maps sends you in a way that will have you turning into a Home Depot.  The hotel is behind the store, and you can reach...This is a nice property located on the westbound side of I-10, which you can hear from a room on that side.  But since I'll take that over a blaring TV or screaming kids, it didn't bother me.Check-in was easy, though because it was late at night, the front door was locked.  But the clerk quickly came to let me in. The room was clean and comfortable -- what you would expect from a Courtyard.  There's a Wal-Mart SuperCenter down the street for anything you could possibly need.About 5 minutes away is the Baldwin Park Metrolink train station, which has frequent service weekday mornings to Union Station.  It was well worth the $10.50 roundtrip and $3 parking to avoid the bumper-to-bumper on I-10.My only complaint is that unlike so many other hotels today, there was no free computer to use in the lobby.  Oh there was a computer -- which you could use for $3 a pop.  C'mon -- at $132 a night, what's the big deal about letting folks check e-mail or print a boarding pass?  The next night I saw the same thing at the Marriott Suites in Anaheim.  Maybe it's the same franchisee.And for those approaching the hotel by driving eastbound on I-10, a word of warning: Google maps sends you in a way that will have you turning into a Home Depot.  The hotel is behind the store, and you can reach it at the end of the parking lot, but there's no Courtyard sign at that entrance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r12313941-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>12313941</t>
+  </si>
+  <si>
+    <t>01/03/2008</t>
+  </si>
+  <si>
+    <t>Best Hotel In The Area</t>
+  </si>
+  <si>
+    <t>Our family recently stayed there for two nights while visiting relatives.   If you are looking for a clean and well appointed place to stay in this part of the San Gabriel Valley, this a a great choice.  While it is pricier than the standard motel which is prevalent in the area, you get a comfortable, clean, and well appointed hotel.We stayed in a double queen room which was spacious.  We ate breakfast at the hotel restaurant (buffet) and the food quality was very good.  Amenities such a free wi-fi, newspapers and magazines are a nice touch.  The staff was friendly and helpful.  The hotel was nice and quiet.  One side of the hotel is close to the freeway and there is a bit of noise from that.  We requested a room opposite the freeway (facing a residential neighborhood) and it was nice and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>Our family recently stayed there for two nights while visiting relatives.   If you are looking for a clean and well appointed place to stay in this part of the San Gabriel Valley, this a a great choice.  While it is pricier than the standard motel which is prevalent in the area, you get a comfortable, clean, and well appointed hotel.We stayed in a double queen room which was spacious.  We ate breakfast at the hotel restaurant (buffet) and the food quality was very good.  Amenities such a free wi-fi, newspapers and magazines are a nice touch.  The staff was friendly and helpful.  The hotel was nice and quiet.  One side of the hotel is close to the freeway and there is a bit of noise from that.  We requested a room opposite the freeway (facing a residential neighborhood) and it was nice and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r7858692-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>7858692</t>
+  </si>
+  <si>
+    <t>06/15/2007</t>
+  </si>
+  <si>
+    <t>Great for this type of hotel!</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel in the area of the Forrest Lawn mortuary due to a death in the family.  This hotel was about 7 miles away and great compared to the rest of the choices.  I paid close attention to the other tripadvisor reviews.  As this was not a vacation, and I am used to staying at more "luxury" locations, my expecatations were pretty low.  Upon arrival the front desk staff were VERY helpful and curtious.  The hotel itself is right on the 10 freeway, but you could not hear it inside the rooms or lobby (be sure to ask for a mountain-view).  The lobby was very nice, bartender gave great directions and made stiff drinks.  I kept up with work, due to their free wi-fi.  The free breakfast buffet was basic and eggs yucky...but you get what you pay for, right?Rooms clean, bed comfy, and freeway close...while not a luxury hotel, it deserves more than 3 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel in the area of the Forrest Lawn mortuary due to a death in the family.  This hotel was about 7 miles away and great compared to the rest of the choices.  I paid close attention to the other tripadvisor reviews.  As this was not a vacation, and I am used to staying at more "luxury" locations, my expecatations were pretty low.  Upon arrival the front desk staff were VERY helpful and curtious.  The hotel itself is right on the 10 freeway, but you could not hear it inside the rooms or lobby (be sure to ask for a mountain-view).  The lobby was very nice, bartender gave great directions and made stiff drinks.  I kept up with work, due to their free wi-fi.  The free breakfast buffet was basic and eggs yucky...but you get what you pay for, right?Rooms clean, bed comfy, and freeway close...while not a luxury hotel, it deserves more than 3 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r6121228-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>6121228</t>
+  </si>
+  <si>
+    <t>11/12/2006</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise!</t>
+  </si>
+  <si>
+    <t>Was nervous about what we might find upon arrival, only because I knew this hotel was "on" a freeway, and not in a 4 star hotel category.  Arrived to find them cleaning the windows in the entry, and signs out noting freshly cleaned carpets...and not because they were icky or soiled, I just think this Courtyard is an A+ on cleanliness and is working to keep it that way.  Our room was spacious, clean and quiet (requested a mtn view which insured no freeway noise).  Love the new $250 fine policy for anyone leaving a room smokey....this is brilliant and hopefully will become the norm for many!  The front desk staff was courteous, quick and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was nervous about what we might find upon arrival, only because I knew this hotel was "on" a freeway, and not in a 4 star hotel category.  Arrived to find them cleaning the windows in the entry, and signs out noting freshly cleaned carpets...and not because they were icky or soiled, I just think this Courtyard is an A+ on cleanliness and is working to keep it that way.  Our room was spacious, clean and quiet (requested a mtn view which insured no freeway noise).  Love the new $250 fine policy for anyone leaving a room smokey....this is brilliant and hopefully will become the norm for many!  The front desk staff was courteous, quick and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r5728908-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>5728908</t>
+  </si>
+  <si>
+    <t>08/29/2006</t>
+  </si>
+  <si>
+    <t>We booked this hotel as a place to stay while visiting friends on the last leg of our California trip. This hotel was a very pleasant surprise and we were delighted with everything. There was ample space for parking which was at no additional cost. The front desk gentleman was very hospitable and gave us a large room with queen beds that was very comfortable beyond our expectations. The location was close to the highway and several places to eat. We stayed a total of 3 nights because we were so satisfied with the experience of the first night. The front desk was very responsive - they delivered the bathroom towels we requested at 12:30 in the morning after we realized that housekeeping forgot to replenish them that day. There was complimentary wireless Internet - awesome! We simply loved staying here and would definitely recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>We booked this hotel as a place to stay while visiting friends on the last leg of our California trip. This hotel was a very pleasant surprise and we were delighted with everything. There was ample space for parking which was at no additional cost. The front desk gentleman was very hospitable and gave us a large room with queen beds that was very comfortable beyond our expectations. The location was close to the highway and several places to eat. We stayed a total of 3 nights because we were so satisfied with the experience of the first night. The front desk was very responsive - they delivered the bathroom towels we requested at 12:30 in the morning after we realized that housekeeping forgot to replenish them that day. There was complimentary wireless Internet - awesome! We simply loved staying here and would definitely recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r4728692-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>4728692</t>
+  </si>
+  <si>
+    <t>03/23/2006</t>
+  </si>
+  <si>
+    <t>Excllent!!!</t>
+  </si>
+  <si>
+    <t>We booked a room with two queens for three adults.  Also requested a late check in.  We drove in aroun 10pm-ish.  Checking in was a breeze.The facilites were well kept and and in excellent condition.The beds were soft, the rooom clean, the bathroom spotless, the showeres had great pressure and hot water.The staff did what it is expected of them.This is a 'business' hotel.  As in a lot business types stay here.  But we did see a handfull of families there too.we only stayed a weekend and had our plates full.  We did not get to use the pool nor jacuzzi.  They looked quite inviting though.Access is easy.  The parking lot felt secure.  There are a number of fast food restaurants in the plaza where the hotel is located if you prefer to eat there.  We did not eat at the hotel.  The only negative would be, and I do not blame the hotel for this, is that it is next to the freeway and the freeway noise is loud.  Stepping outside of the hotel you get blasted with the noise.  But oh well, what did you expect in the middle of LA?MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a room with two queens for three adults.  Also requested a late check in.  We drove in aroun 10pm-ish.  Checking in was a breeze.The facilites were well kept and and in excellent condition.The beds were soft, the rooom clean, the bathroom spotless, the showeres had great pressure and hot water.The staff did what it is expected of them.This is a 'business' hotel.  As in a lot business types stay here.  But we did see a handfull of families there too.we only stayed a weekend and had our plates full.  We did not get to use the pool nor jacuzzi.  They looked quite inviting though.Access is easy.  The parking lot felt secure.  There are a number of fast food restaurants in the plaza where the hotel is located if you prefer to eat there.  We did not eat at the hotel.  The only negative would be, and I do not blame the hotel for this, is that it is next to the freeway and the freeway noise is loud.  Stepping outside of the hotel you get blasted with the noise.  But oh well, what did you expect in the middle of LA?More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2566,5442 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>241</v>
+      </c>
+      <c r="X24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>268</v>
+      </c>
+      <c r="X27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>276</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+      <c r="K30" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" t="s">
+        <v>291</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31" t="s">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s">
+        <v>297</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>298</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>299</v>
+      </c>
+      <c r="X31" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>303</v>
+      </c>
+      <c r="J32" t="s">
+        <v>304</v>
+      </c>
+      <c r="K32" t="s">
+        <v>305</v>
+      </c>
+      <c r="L32" t="s">
+        <v>306</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>307</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>308</v>
+      </c>
+      <c r="X32" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" t="s">
+        <v>313</v>
+      </c>
+      <c r="K33" t="s">
+        <v>314</v>
+      </c>
+      <c r="L33" t="s">
+        <v>315</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>316</v>
+      </c>
+      <c r="X33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>319</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J34" t="s">
+        <v>321</v>
+      </c>
+      <c r="K34" t="s">
+        <v>322</v>
+      </c>
+      <c r="L34" t="s">
+        <v>323</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>316</v>
+      </c>
+      <c r="X34" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>326</v>
+      </c>
+      <c r="J35" t="s">
+        <v>327</v>
+      </c>
+      <c r="K35" t="s">
+        <v>328</v>
+      </c>
+      <c r="L35" t="s">
+        <v>329</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>330</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>331</v>
+      </c>
+      <c r="X35" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>335</v>
+      </c>
+      <c r="J36" t="s">
+        <v>336</v>
+      </c>
+      <c r="K36" t="s">
+        <v>337</v>
+      </c>
+      <c r="L36" t="s">
+        <v>338</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>339</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>331</v>
+      </c>
+      <c r="X36" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>342</v>
+      </c>
+      <c r="J37" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" t="s">
+        <v>344</v>
+      </c>
+      <c r="L37" t="s">
+        <v>345</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>348</v>
+      </c>
+      <c r="J38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K38" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s">
+        <v>351</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>352</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>353</v>
+      </c>
+      <c r="X38" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J39" t="s">
+        <v>358</v>
+      </c>
+      <c r="K39" t="s">
+        <v>359</v>
+      </c>
+      <c r="L39" t="s">
+        <v>360</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>361</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K40" t="s">
+        <v>364</v>
+      </c>
+      <c r="L40" t="s">
+        <v>365</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>361</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>368</v>
+      </c>
+      <c r="J41" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s">
+        <v>370</v>
+      </c>
+      <c r="L41" t="s">
+        <v>371</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>372</v>
+      </c>
+      <c r="X41" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>376</v>
+      </c>
+      <c r="J42" t="s">
+        <v>377</v>
+      </c>
+      <c r="K42" t="s">
+        <v>378</v>
+      </c>
+      <c r="L42" t="s">
+        <v>379</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>380</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>381</v>
+      </c>
+      <c r="X42" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>385</v>
+      </c>
+      <c r="J43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>389</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>392</v>
+      </c>
+      <c r="J44" t="s">
+        <v>393</v>
+      </c>
+      <c r="K44" t="s">
+        <v>394</v>
+      </c>
+      <c r="L44" t="s">
+        <v>395</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>396</v>
+      </c>
+      <c r="X44" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>399</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K45" t="s">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s">
+        <v>403</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>404</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>405</v>
+      </c>
+      <c r="X45" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>408</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>409</v>
+      </c>
+      <c r="J46" t="s">
+        <v>410</v>
+      </c>
+      <c r="K46" t="s">
+        <v>411</v>
+      </c>
+      <c r="L46" t="s">
+        <v>412</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>413</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>414</v>
+      </c>
+      <c r="X46" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>417</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>418</v>
+      </c>
+      <c r="J47" t="s">
+        <v>419</v>
+      </c>
+      <c r="K47" t="s">
+        <v>420</v>
+      </c>
+      <c r="L47" t="s">
+        <v>421</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>422</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>423</v>
+      </c>
+      <c r="X47" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>426</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>427</v>
+      </c>
+      <c r="J48" t="s">
+        <v>428</v>
+      </c>
+      <c r="K48" t="s">
+        <v>429</v>
+      </c>
+      <c r="L48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>432</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>433</v>
+      </c>
+      <c r="J49" t="s">
+        <v>434</v>
+      </c>
+      <c r="K49" t="s">
+        <v>435</v>
+      </c>
+      <c r="L49" t="s">
+        <v>436</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>437</v>
+      </c>
+      <c r="X49" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>440</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>441</v>
+      </c>
+      <c r="J50" t="s">
+        <v>442</v>
+      </c>
+      <c r="K50" t="s">
+        <v>443</v>
+      </c>
+      <c r="L50" t="s">
+        <v>444</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>445</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>446</v>
+      </c>
+      <c r="X50" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>449</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>450</v>
+      </c>
+      <c r="J51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K51" t="s">
+        <v>452</v>
+      </c>
+      <c r="L51" t="s">
+        <v>453</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>445</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>446</v>
+      </c>
+      <c r="X51" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>455</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>456</v>
+      </c>
+      <c r="J52" t="s">
+        <v>457</v>
+      </c>
+      <c r="K52" t="s">
+        <v>458</v>
+      </c>
+      <c r="L52" t="s">
+        <v>459</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>445</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>460</v>
+      </c>
+      <c r="X52" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>463</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>464</v>
+      </c>
+      <c r="J53" t="s">
+        <v>465</v>
+      </c>
+      <c r="K53" t="s">
+        <v>305</v>
+      </c>
+      <c r="L53" t="s">
+        <v>466</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>467</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>468</v>
+      </c>
+      <c r="J54" t="s">
+        <v>469</v>
+      </c>
+      <c r="K54" t="s">
+        <v>470</v>
+      </c>
+      <c r="L54" t="s">
+        <v>471</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>472</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>473</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>474</v>
+      </c>
+      <c r="J55" t="s">
+        <v>475</v>
+      </c>
+      <c r="K55" t="s">
+        <v>328</v>
+      </c>
+      <c r="L55" t="s">
+        <v>476</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>477</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>478</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>479</v>
+      </c>
+      <c r="J56" t="s">
+        <v>480</v>
+      </c>
+      <c r="K56" t="s">
+        <v>481</v>
+      </c>
+      <c r="L56" t="s">
+        <v>482</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>483</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>485</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>486</v>
+      </c>
+      <c r="J57" t="s">
+        <v>487</v>
+      </c>
+      <c r="K57" t="s">
+        <v>488</v>
+      </c>
+      <c r="L57" t="s">
+        <v>489</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>490</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>491</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>492</v>
+      </c>
+      <c r="J58" t="s">
+        <v>493</v>
+      </c>
+      <c r="K58" t="s">
+        <v>494</v>
+      </c>
+      <c r="L58" t="s">
+        <v>495</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>496</v>
+      </c>
+      <c r="O58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>497</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>500</v>
+      </c>
+      <c r="L59" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>502</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>503</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>504</v>
+      </c>
+      <c r="J60" t="s">
+        <v>505</v>
+      </c>
+      <c r="K60" t="s">
+        <v>506</v>
+      </c>
+      <c r="L60" t="s">
+        <v>507</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>508</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>515</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>516</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>517</v>
+      </c>
+      <c r="J62" t="s">
+        <v>518</v>
+      </c>
+      <c r="K62" t="s">
+        <v>519</v>
+      </c>
+      <c r="L62" t="s">
+        <v>520</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>521</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>523</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>524</v>
+      </c>
+      <c r="J63" t="s">
+        <v>525</v>
+      </c>
+      <c r="K63" t="s">
+        <v>526</v>
+      </c>
+      <c r="L63" t="s">
+        <v>527</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>528</v>
+      </c>
+      <c r="O63" t="s">
+        <v>89</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>530</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>531</v>
+      </c>
+      <c r="J64" t="s">
+        <v>532</v>
+      </c>
+      <c r="K64" t="s">
+        <v>533</v>
+      </c>
+      <c r="L64" t="s">
+        <v>534</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>528</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s">
+        <v>539</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>540</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>542</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>543</v>
+      </c>
+      <c r="J66" t="s">
+        <v>544</v>
+      </c>
+      <c r="K66" t="s">
+        <v>545</v>
+      </c>
+      <c r="L66" t="s">
+        <v>546</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>540</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>548</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>549</v>
+      </c>
+      <c r="J67" t="s">
+        <v>550</v>
+      </c>
+      <c r="K67" t="s">
+        <v>551</v>
+      </c>
+      <c r="L67" t="s">
+        <v>552</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>553</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>555</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>556</v>
+      </c>
+      <c r="J68" t="s">
+        <v>557</v>
+      </c>
+      <c r="K68" t="s">
+        <v>558</v>
+      </c>
+      <c r="L68" t="s">
+        <v>559</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>502</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>560</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>561</v>
+      </c>
+      <c r="J69" t="s">
+        <v>562</v>
+      </c>
+      <c r="K69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69" t="s">
+        <v>564</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>565</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>566</v>
+      </c>
+      <c r="J70" t="s">
+        <v>567</v>
+      </c>
+      <c r="K70" t="s">
+        <v>568</v>
+      </c>
+      <c r="L70" t="s">
+        <v>569</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>570</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>571</v>
+      </c>
+      <c r="J71" t="s">
+        <v>572</v>
+      </c>
+      <c r="K71" t="s">
+        <v>573</v>
+      </c>
+      <c r="L71" t="s">
+        <v>574</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>575</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>576</v>
+      </c>
+      <c r="J72" t="s">
+        <v>577</v>
+      </c>
+      <c r="K72" t="s">
+        <v>578</v>
+      </c>
+      <c r="L72" t="s">
+        <v>579</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>580</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>582</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>583</v>
+      </c>
+      <c r="J73" t="s">
+        <v>584</v>
+      </c>
+      <c r="K73" t="s">
+        <v>585</v>
+      </c>
+      <c r="L73" t="s">
+        <v>586</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>587</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>589</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>590</v>
+      </c>
+      <c r="J74" t="s">
+        <v>591</v>
+      </c>
+      <c r="K74" t="s">
+        <v>592</v>
+      </c>
+      <c r="L74" t="s">
+        <v>593</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>594</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>597</v>
+      </c>
+      <c r="J75" t="s">
+        <v>598</v>
+      </c>
+      <c r="K75" t="s">
+        <v>599</v>
+      </c>
+      <c r="L75" t="s">
+        <v>600</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>594</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>602</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>603</v>
+      </c>
+      <c r="J76" t="s">
+        <v>604</v>
+      </c>
+      <c r="K76" t="s">
+        <v>605</v>
+      </c>
+      <c r="L76" t="s">
+        <v>606</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>607</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>609</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>610</v>
+      </c>
+      <c r="J77" t="s">
+        <v>611</v>
+      </c>
+      <c r="K77" t="s">
+        <v>612</v>
+      </c>
+      <c r="L77" t="s">
+        <v>613</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>614</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>616</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>617</v>
+      </c>
+      <c r="J78" t="s">
+        <v>618</v>
+      </c>
+      <c r="K78" t="s">
+        <v>619</v>
+      </c>
+      <c r="L78" t="s">
+        <v>620</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>621</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>622</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>623</v>
+      </c>
+      <c r="J79" t="s">
+        <v>624</v>
+      </c>
+      <c r="K79" t="s">
+        <v>625</v>
+      </c>
+      <c r="L79" t="s">
+        <v>626</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>627</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>629</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>630</v>
+      </c>
+      <c r="J80" t="s">
+        <v>631</v>
+      </c>
+      <c r="K80" t="s">
+        <v>632</v>
+      </c>
+      <c r="L80" t="s">
+        <v>633</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>634</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>636</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>637</v>
+      </c>
+      <c r="J81" t="s">
+        <v>638</v>
+      </c>
+      <c r="K81" t="s">
+        <v>639</v>
+      </c>
+      <c r="L81" t="s">
+        <v>640</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>641</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>643</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>644</v>
+      </c>
+      <c r="J82" t="s">
+        <v>645</v>
+      </c>
+      <c r="K82" t="s">
+        <v>646</v>
+      </c>
+      <c r="L82" t="s">
+        <v>647</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>648</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>650</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>651</v>
+      </c>
+      <c r="J83" t="s">
+        <v>652</v>
+      </c>
+      <c r="K83" t="s">
+        <v>653</v>
+      </c>
+      <c r="L83" t="s">
+        <v>654</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>656</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>657</v>
+      </c>
+      <c r="J84" t="s">
+        <v>658</v>
+      </c>
+      <c r="K84" t="s">
+        <v>359</v>
+      </c>
+      <c r="L84" t="s">
+        <v>659</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>660</v>
+      </c>
+      <c r="O84" t="s">
+        <v>89</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>26757</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>662</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>663</v>
+      </c>
+      <c r="J85" t="s">
+        <v>664</v>
+      </c>
+      <c r="K85" t="s">
+        <v>665</v>
+      </c>
+      <c r="L85" t="s">
+        <v>666</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>667</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_153.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_153.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="752">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Steve D</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Stayed here while on business in nearby Covina.   It's Los Angeles-Baldwin Park, but that's a bit of a misnomer:  it's about an hour to LAX.   Still, if you're traveling in this area, it's a great spot.Rooms are clean and appear to have been recently renovated.  Bistro downstairs is very good, and there are a number of chain dining options in the adjacent strip mall.  No restaurants to write home about, but if you're here on business or traveling with the family, you'll find a spot without having to climb back in the car.   Wifi is excellent and the welcome is warm and genuine.There's a nice pool if you have the kids along, and easy access to the highway.More</t>
   </si>
   <si>
+    <t>neill978</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r583780929-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We needed a place to stay while doing some business in Azusa and decided to try the Courtyard Los Angeles Baldwin Park. The property appears updated both inside and out. Upon request, we received an upper level room that felt updated and clean - plenty roomy for 3 people. As a category 3 Marriott property we were able to use Marrriott Reward points for our stay for a reasonable rate.The lobby has a Starbucks as well as number of workspaces if you prefer to check email and get a coffee in the downstairs open area.While the room itself was a good value, we were a little surprised at the $6/night parking fee. Upon reviewing our reservation agreement, the fee was mentioned, but we had overlooked it. We felt that this was a pretty average location (ie. not Disneyland, not Downtown LA, etc) perhaps even less than average being sandwiched between the back of a Home Depot, the freeway and a older residential neighborhood. Bottom line, this property / location didn't really warrant charging for parking - seemed like a bit of nickel &amp; dimeing.More</t>
   </si>
   <si>
+    <t>jogar88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r583748522-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>I have stayed at the Courtyard Marriott’s in other locations.  I like the consistency of the hotels, I know what to expect and what I’m getting.  The Courtyard Marriott in Baldwin Park, however, was the most pleasing of the ones I have stayed in.I had a two night stay, Thursday and Friday nights.  The room was very clean and comfortable.  Aside from the air conditioning unit, the room was quiet as a church mouse despite being close to the Interstate. I knew what the Bistro had to offer and it was consistent with the others, a decent breakfast.  Nearby, in walking distance, there is Denny’s and the Guadalajara Grill. Parking  for the hotel was secure and amply lit.  I was on the 8th floor and the elevator was very fast.What set this hotel apart from the other Courtyards was the staff.  Each and every employed person encountered was very pleasant and friendly. Their attitude made the stay even more enjoyable.More</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r548113129-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Stayed here using points so I can't really comment on price. Hotel was clean. Staff very friendly. Room was quiet. There's no free breakfast but there's food available in the lobby.  Location is right off the 10 so it's convenient. If you face the back of hotel you'll get a nice view of the mountains and sunrise. The other way you'll get the sunset. My only issue was they charge $6 a night for parking. Always surprises me of this when you're out in the suburbs. I can kind of understand it in a city when you have to park in a garage. But out here in the burbs doesn't make much sense.More</t>
   </si>
   <si>
+    <t>richardhI5184YO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r544113067-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>We were visiting friends that lived about a mile or so away from the hotel.  The rooms were very good, large living area, King size bed, bathroom good size.  The staff at front desk were all very nice, very helpful if you had any problems or concerns.  Had a private parking area, $6 a day if you were staying at hotel, liked the security of the parking area. Good places to eat within a short distance, Wal-Mart about a five minute drive away. Would stay at hotel again, nice swimming pool and hot tub.More</t>
   </si>
   <si>
+    <t>El_Mirager</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r534420936-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>The location of this hotel to Irwindale Speedway was pretty good - we went for the drift races in October, and there are plenty of restaurants nearby for a short stay (Denny's, Guadalajara Grill, McDonald's, Sizzler).  However I did pick this hotel for the "free wifi" and although yes, they technically have free wifi you can connect to, the wifi doesn't get you online or on the internet so it's kind of pointless to have.Smart TV in the room will allow you to log in to your existing Netflix account so that was kind of cool.More</t>
   </si>
   <si>
+    <t>nassir a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r499939882-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>In July 6 after 3pm I walked into front door ,was anyone behind the an older African American gentleman name was Michael standing away from the desk didn't say anything to,I had to asking is this front desk he didn't say yes or no he said what you need.i told checking in and I have employees rates and he this is no good I have to 199 a night I told him I received 2e mail from the hotel said it's good and I drove gross the desert.he told there's some hotels down the road I could .i didn't have choice my kids are crying very tired I agree to pay the full price,he put us next to the elevator my kids didn't get any sleep.i hate to this but I'll tell everyone I know to don't stay in this hotel and that Michael guy he's very rude unfriendly unprofessional and needs to work in some place away from guest service.More</t>
   </si>
   <si>
+    <t>dladd1980</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r499791277-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>The hotel just doesn't cut it. The staff was great, but other than that it sucked. The food that is offered in the Bistro was over priced and tasted horrible. Most of it was frozen entrees and microwaved or toaster oven. Nothing complimentary at all. More</t>
   </si>
   <si>
+    <t>geoffreypc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r488911666-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Hotel is what you would expect from a Courtyard brand in a not-so-great part of town. It worked for my daughter and I for one evening.The good - hotel itself is good quality and met basic expectations of our stayThe neutral  - they charge for parking ($6) in a secured area.  Considering the area thats probably good but not what you would normally expect from a suburban Courtyard.Front desk service was ok.  I was met by three front desk personnel and went to the first one who greeted me.  He then promptly asked me to wait so he could finish up with whatever he was doing (I was the only guest checking in).  Not big deal, I took a step back and waited and a couple minutes later went to the next agent who helped me check in.The opportunity - bathroom was not very clean - hair was in plain sight in the middle of the bathtub.  Shower pressure was light.Curtains are 1-2 inches too short which allows a lot of sunlight into the room (see photos).  Annoying if you plan to sleep in.More</t>
   </si>
   <si>
+    <t>cherispear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r480219488-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>Beautiful place, friendly staff, and convenient location by freeway. The surrounding neighborhood is questionable and the actual entrance to hotel lot is really hidden, as in behind Home Depot and mini mall. Would stay again if needed because the facility is nice, but probably not since we didn't feel comfortable going out at night. We act drive, quite a ways away, for dinner, up feel comfy. More</t>
   </si>
   <si>
+    <t>Darlene M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r478575949-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>This location is very nice and clean, staff was friendly, room was great although it was only for one night. I would recommend this hotel and location to all my friends and family. I most likely will stay as this location next time I'm in town! More</t>
   </si>
   <si>
+    <t>Virag S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r471812546-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>I stayed here for 4 nights and thoroughly enjoyed the stay. There is a Walmart near by for shopping and many good Indian restaurants within 10-12 miles. The swimming pool is outdoor and open to sky. It does not have a shower. Most people think that it must be cold because the pool is open. But I dared to take a dip and was pleasantly surprised to find it moderately heated. The jacuzzi was even better. You could have a refreshing dip while you are there.This one is well located in Baldwin Park near a big shopping mall. It may get lonely at night hours but did not find any homeless people around. Next time I will try the courtyard at Pasadena and will compare it with this one.Do enjoy some photographs.TIP: Get a room with the suburban view and on higher floors.More</t>
   </si>
   <si>
+    <t>Deborah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r456484798-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>Due to this location, I was a bit concerned about booking this hotel. But, we needed something very close to a funeral and at the last minute, this was the best available. The staff was just ok-not attentive and many times playing on their phones or gossiping. It was pouring rain and the entry was slippery, but they were unconcerned. The bar staff, however, was fantastic. They were helpful, chatty, and attentive. The rooms were clean, well stocked, and quiet. I liked that you needed your room key to access the elevators. We did use the gym and pool and liked both. I would have no reason to stay again, but it served it's purpose. Our room faced the freeway, but it was very quiet all night and early during rush hour. Everything we requested at booking was in our room (extra pillows, towels, etc) and check out was quick and easy. Nothing spectacular, but ok for a one night stay.More</t>
   </si>
   <si>
+    <t>kln2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r453572237-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>Turned off water during work week to do repairs. Sounded like a bad idea but they committed to a 5am turn on time. 6am - no water - no way to take shower or brush teeth. GM not on property - no preparations for guests to shower before going to work. This is so unprofessional. Not what one would expect from a chain like this.More</t>
   </si>
   <si>
+    <t>Cheyanne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r448448869-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>Im from Chicago and I have a long distance relationship with my fiancé. This isn't the first time we've been to a courtyard in California. We were here for five days, we had a great time until the last day. Me and my fiancé decided to watch tv and enjoy the last few hours with each other, few minutes later, some lady jiggles the handle, knocks on the door and mumbled something. We answered the door and there was no one. Another minute passes and a person from the front desk comes to our room and tells us that it's our first and final warning to stop the noise or we will be kicked out. Now I get that the tv was loud and I get you wanted us to turn it down but one, this lady startled us by jiggling the handle like she was trying to break in. Two, she didn't wait long enough for us to come out and ask what was wrong, she just did that for five seconds and then went back to her room and called the front desk. I also found it very rude and disrespectful for someone to talk to me like a little child and say this is my FIRST AND FINAL warning. I can understand if we were causing trouble the whole week but we weren't. Well I guess this is my FIRST AND LAST TIME coming here. This would...Im from Chicago and I have a long distance relationship with my fiancé. This isn't the first time we've been to a courtyard in California. We were here for five days, we had a great time until the last day. Me and my fiancé decided to watch tv and enjoy the last few hours with each other, few minutes later, some lady jiggles the handle, knocks on the door and mumbled something. We answered the door and there was no one. Another minute passes and a person from the front desk comes to our room and tells us that it's our first and final warning to stop the noise or we will be kicked out. Now I get that the tv was loud and I get you wanted us to turn it down but one, this lady startled us by jiggling the handle like she was trying to break in. Two, she didn't wait long enough for us to come out and ask what was wrong, she just did that for five seconds and then went back to her room and called the front desk. I also found it very rude and disrespectful for someone to talk to me like a little child and say this is my FIRST AND FINAL warning. I can understand if we were causing trouble the whole week but we weren't. Well I guess this is my FIRST AND LAST TIME coming here. This would of had five stars until this ruined my last good night with my fiancé.More</t>
   </si>
   <si>
+    <t>DCyp_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r436017826-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -579,6 +627,9 @@
     <t>I stay here quite a bit for work. Stays have consistently been above par. Beds are comfortable, front desk is attentive, and food and service at the in-house Bistro is very, very good. For breakfast the Classic Oatmeal or the Egg White Frittata are great choices. Have also had the Hummus starter and the Citrus Spinach Salad....both are filling and very flavorful. They also serve Starbucks coffee and drinks in-house as well although there is one nearby.  Also nearly are the Sizzler, a tasty mexican restaurant, and several fast food options.More</t>
   </si>
   <si>
+    <t>Pjfan77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r432861799-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -606,6 +657,9 @@
     <t>I stayed for 20 nights on a business trip alone.Room- jr suite large, clean, comfortable bed with several different pillows. Microwave and mini fridge in room. I would have preferred a kitchenette but it was fine. TV a little small.Gym- small but worked. Equipment in great shape, towels and water cooler provided.Pool - outside, small but clean. Area could use more ambiance.  Tables in the shade were nice to sit and have lunch. Restuarant- I was blown away by the bistro crew. In no time at all the recognized me  and knew my drink order.Front desk- always greeted me when I returned,  very helpful in recommending area restuarants etc.Location- Right off the I10 its very convenient. Area felt safe. You need your key card to operate lobby elevators,  which made me feel safer.  Restaurants right in parking lot include Sizzler, Dennys, Guadalajara grill, Starbucks, McDonalds.  There is also a suishi place fast food at end of parking lot. Its a 5 minute drive to Walmart, Panda Express, Farmer Boys. Also 5 minutes another direction to West Covina Plaza which is a large mall with great restaurants.  I loved the Lazy Dog!Overall this is an excellent hotel in a convenient location.  The staff is wonderful. They made me feel at home.  Its a real gem.More</t>
   </si>
   <si>
+    <t>Kayann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r430192474-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -621,6 +675,9 @@
     <t>We needed a hotel near Glendale, CA and relied on TripAdvisor reviews to choose this Courtyard.  We were quite satisfied with the hotel - the room was clean and quiet and we slept comfortably.  Parking was free and close to the front entrance.</t>
   </si>
   <si>
+    <t>Dan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r414284349-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>After searching nearly all of the places to stay in the area and reading the reviews, it was very clear that the Courtyard LA Baldwin Park was the only choice for me, even at twice the price!! The hotel is located near nice restaurants, the rooms were very quite and clean, the staff was very friendly, and they have a nice bistro which is opened from breakfast to nightcap. I will definitely stay here again!!More</t>
   </si>
   <si>
+    <t>Clare C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r414078314-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
     <t>Stayed here for a week on business. I would strongly recommend this hotel to someone who likes to wake up in the morning covered in mosquito bites.  Changed rooms, and more bites the next morning. So, yeah now I'm itchy.More</t>
   </si>
   <si>
+    <t>missamiann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r391375887-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -702,6 +765,9 @@
     <t>We stayed at the Courtyard for a quick night during a baseball tournament.  The location of this hotel is great, there are many restaurants and a Starbucks nearby.  Not that you really need it, though, because the hotel has a Starbucks and a bistro inside.  The staff was very accommodating, ensuring that we had a room next to another player, so the kids had fun.  The rooms were clean, the beds are comfy, the pool area looked nice, we would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Michael A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r384746568-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -723,6 +789,9 @@
     <t>I visited on the 112 degree day and the air conditioner kept the room cold . Service is friendly and the rooms are clean . I really like the courtyard bistros . I had the southwest salad for dinner and egg sandwich for breakfast . I would come back again More</t>
   </si>
   <si>
+    <t>arizona_8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r368321205-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -750,6 +819,9 @@
     <t>We were in town for a friend's wedding and stayed 2 nights at this hotel. The staff was wonderful! Very kind, welcoming and helpful. The lobby was spacious, with a conveniently located Starbucks. Hotel is the middle of a shopping center, so very convenient with lots of restaurant options and a Walmart just down the street in case you've forgotten anything. Rooms are spacious, we really had no issues except the hot water seemed to run out quickly. It would turn cold while you were in the shower, then take a few minutes to warm back up. Just a tiny, but noticeable inconvenience. This hotel does have nice banquet facilities if you are looking for a place for an event.More</t>
   </si>
   <si>
+    <t>Elena T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r358025857-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -777,6 +849,9 @@
     <t>We had the nicest time during the 18th birthday party of my daughter Jackie. Vanessa Johnson, catering manager did a great job on planning for party catering &amp; preparation for event. Everything was done on timely manner &amp; catered to all our party needs. Hotel is clean &amp; room that  my sister stayed. Staff are friendly food is great. Our guests gave good compliments on food &amp; services. Thanks to Ray Lopez too. Carlito &amp; ElenaMore</t>
   </si>
   <si>
+    <t>mehul4pry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r342684590-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -804,6 +879,9 @@
     <t>It was nice hotel,  clean, welcoming and great location. It was only one night stay with family but it was great service. Location is great as it close to all amenities. Value for money. Highly recommended. More</t>
   </si>
   <si>
+    <t>Kim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r342473252-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -831,6 +909,9 @@
     <t>Check-in: We're Marriott Gold Elite members and check in was less than stellar. I checked in with my Marriott Rewards card, which is on file and has been for years. Yet, I had to provide the card to check-in. I don't carry it with me. My husband has it. I always check in without it. A few apologies later and we had our room card.We were on the top floor, Room 911. Night one we didn't call the front desk and just endured the noise: running in halls, shouting outside our door. Night two we called the front desk: shouting (profanity) outside our door, pounding on doors, running in halls. Security came quickly and 15 minutes later the hall was quiet.Wall in bathroom dirty, like someone had dumped a soda in the trash and it splashed onto the wall and it was overlooked. The room was clean otherwise, bedding comfortable, toiletries provided, coffee and tea provided in room, refrigerator.Breakfast is not provided though they do have a Bistro in lobby with Starbucks coffee and a large variety of food on their menu. Wine and liquor available as well. I won't add this Marriott to the list that we will return to when in LA.More</t>
   </si>
   <si>
+    <t>Erin L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r340461824-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -858,6 +939,9 @@
     <t>I love the Marriott chains and have had really great luck every time I've gone. This is the second courtyard in the area that we've been to and it was clean, comfortable and quiet. If you book online, just an FYI, they will let you request a roll away but they will not allow one in a room with two queens. Obviously once we got there I could see why, but they don't inform of that when booking online. Otherwise, staff was pleasant and helpful and I've found that to be consistent with Marriott.More</t>
   </si>
   <si>
+    <t>WhiteyKT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r328011516-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -879,6 +963,9 @@
     <t>This hotel was conveniently located for my various business meetings in LA. The lobby and the rooms are very nice with the exception that the bathroom needs to be updated.  The Bistro was excellent, especially the staff (Chris, Johnathan and Debbie). Thanks for the great, welcoming service.More</t>
   </si>
   <si>
+    <t>yangleila_92593</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r325926071-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -895,6 +982,9 @@
   </si>
   <si>
     <t>Stayed here with a tour group while traveling with family, and in no way shape or form did this hotel treat us like a herd of animals (as lots of tour-group hotels do get flustered with group arrivals and don't even bother to talk to us). Nice clean facility and staff was very welcoming. After traveling all the way from San Francisco, we were extremely tired and wary of the service we received from some other hotels we stayed at along the way. This place definitely made us feel comfortable and rested. Outdoor pool is amazing for late night hangout/swims. The only thing I would say the hotel could have done better is higher security. There was a woman outside the hotel hollering racial remarks along the lines of "hey china" "chinatown" to us as we left. Not really the hotel's fault, but it was on property nonetheless, and that definitely set a sour tone to our morning.More</t>
+  </si>
+  <si>
+    <t>Time4UhVacashun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r320214355-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
@@ -930,6 +1020,9 @@
 Oh well, we drove another 5 or 10 minutes, found a hotel that DID less us check out the room before paying, and we stayed there instead. We plan be to going up to the area...We were driving around at night, looking for a hotel close to Los Angeles, and came upon this one. It was probably about 10pm. We were happy, thinking we'd probably found our place to stay for the night.We went in, they quoted us a price, and then we asked to see a room. Their reply, "We have pictures of the rooms online. You can look at those." Uhh, what? Yeah, like all the pictures online, dressed up to make all hotels look extra good, are the same ones you get in person. Both my husband and I tried again and the guy at the desk was a bit of a jerk about us seeing the rooms, claiming it's "corporate policy" to not allow such a thing.So my husband asked what happens if we pay for a room and we get up there and don't like it. Refund? No go. You get it whether it's crappy or not. Wow. At that point I flat out asked them if their rooms were so bad that they wouldn't let anyone take a look at them before paying almost $200 for a night. He insisted that they weren't but I wasn't convinced. What a stupid policy.Oh well, we drove another 5 or 10 minutes, found a hotel that DID less us check out the room before paying, and we stayed there instead. We plan be to going up to the area probably once a week for the next 6 months or so, and will need a room quite often, so I guess it's their loss. If we had liked this place we probably would have just kept coming back. Now we won't be visiting at all.More</t>
   </si>
   <si>
+    <t>Michelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r302600343-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -957,6 +1050,9 @@
     <t>we had pleasure of staying at this hotel for one night. The hotel is close to the freeway and near Kaiser. We were able to check into our room quickly. Our room was very big and had everything we needed. It was very clean and quiet. We had to leave super early in the morning and the Starbucks was just setting up the guy was nice enough to make us a couple coffees. So nice. I would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Jay E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r296298998-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -981,6 +1077,9 @@
     <t>I stayed here on business in San Dimas. The hotel was new, clean, and comfortable, but there wasn't much else around in terms of activity. The view of the mountains from the room was very nice, but they were an hour's drive away. There are a few restaurants around. I ate at the Guadalajara Grill.More</t>
   </si>
   <si>
+    <t>TravelTea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r294870990-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -999,6 +1098,9 @@
     <t>Attended a wedding in Monterey Park and this Courtyard was a good location for us.  It was about 15-30 mins to MP via freeway depending on traffic. Because this is a suburb of LA; parking @ the hotel was self-park &amp; FREE!  There is an onsite restaurant; but there are plenty of other restaurants w/in walking distance.  There is a Sizzler's right next door, the adjacent strip mall there is a Home Depot, McD's, Starbuck's, Denny's &amp; local Mexican Grill.  Down the street is a Panda Express, a Walmart &amp; gas stns.  Very convenient location.The staff are all professional; rooms were nicely appointed, clean &amp; comfortable. Nice large lobby; pool (small) is outside fenced in near the parking lot and 1st floor gym was tiny &amp; OK to use if it isn't crowded.This hotel is reasonably priced, but you will have to deal w/ traffic &amp; distance if you need to get to the heart of LA.  I would not used this hotel as home base if you plan to go to a lot of tourist places closer to LA proper.More</t>
   </si>
   <si>
+    <t>nbaman99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r288381504-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1026,6 +1128,9 @@
     <t>The only con I have to say about this place was, they never offered early check in. We had an occasion to attend to around the area at 2pm. I mention this at the bookin. The rep did say it's not guaranteed but almost all the hotels do provide this. But when I get to the hotel the lady at the reception said to me that she can't give me a room until 4pm, which was the check in time. Most hotels do at 3 pm and 12 pm checkout, but this hotel check in at 4 checkout at 11am. So, I had to go do my thing with all the language and come back at night.Other than that everything was good. Good rooms and good customer Service. places to eat right around the hotel. So if you want a place for one or two days and  have early check in and leave around 12pm this is not the place for you. Do your  research and you will find what you looking for, but for good night sleep and have few days this place is very good. I would give this place 4 stars if they offered that. BTW breakfast is available but for a charge. They should look in to giving complimentary breakfast.More</t>
   </si>
   <si>
+    <t>ellen h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r285379045-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1045,6 +1150,9 @@
   </si>
   <si>
     <t>I frequently stay at this Courtyard because it's near one of my company's offices in LA.  Its conveniently located right of of I-10 but you never hear freeway noise and it's easy to access from the freeway.  The staff are friendly and the amenities like The Bistro are handy especially if you want to grab something quick in the morning or get back to the hotel pretty late.  If you want to grab something outside the hotel there is a Starbucks, Sizzler, Dennys, Mexican and Japanese within walking distance.  If you have a car, there are countless other restaurants and a shopping mall within a couple of miles.  The rooms are comfortable and you need a room key to use the elevators which provides some added security.More</t>
+  </si>
+  <si>
+    <t>Michael C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r285133266-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
@@ -1077,6 +1185,9 @@
 The hotel is located just off I-10 and with construction in the area can be a bit of a challenge to reach.  I was on the 4th floor and faced the back of the hotel which sits in between I-10 and a neighborhood of single family...I found this hotel at last and if I had found it first instead of the one in Hacienda Heights I would have saved myself so much trouble, aggravation and time!I say "at last" because I spent one night in the Courtyard in Hacienda Heights and one night in the Doubletree at Ontario Airport and had I found this I would have stayed all 3 nights here. If you find yourself in the City of Industry/Hacienda Heights or Baldwin Park area this should be your first choice for business travel.Newly constructed this 9 story building is not typical of your average Courtyard.  It has an expansive lobby and all the amenities a business traveler needs.   Quick friendly check in.I noticed one of the two elevators was not working when I arrived but after I unpacked and went down for dinner it had been fixed.  The gym, while typical for Courtyard, was immaculate and in excellent order.Dinner at The Bistro got me a 10% discount with a coupon given to me by the front desk clerk.   I had the Hummus and Turkey Ruben sandwich and the service was fast and friendly.The hotel is located just off I-10 and with construction in the area can be a bit of a challenge to reach.  I was on the 4th floor and faced the back of the hotel which sits in between I-10 and a neighborhood of single family houses.   it's a peculiar piece of real estate which I suspect accounts for the build up of 9 floors rather than the more traditional "courtyard" 3 story square building setting.I had some problems with dogs barking from the single family homes but I turned on the fan and created some white noise to drown it out.  If I go back again, I'll request a high floor and maybe one facing I-10.  Not sure if that is any better though.All in all, a great business hotel with friendly staff that is new and clean and sparkling!More</t>
   </si>
   <si>
+    <t>EdOverIp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r270485577-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1104,6 +1215,9 @@
     <t>Brand new lobby was a nice touch. Decent size room with aging bathroom. One major complaint is the sleep quality...the AC is so loud, both my wife and I can only get 20-30 mins of sleep at a time if we want a comfortable temp.More</t>
   </si>
   <si>
+    <t>Ernestoloredo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r264326264-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1122,6 +1236,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Evangelos K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r264204506-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1137,6 +1254,9 @@
     <t>We had just arrived in Los Angeles and on our way to Dessert  Hot Springs we thought to stop  for the night at Baldwin Park. Upon arrival at the Hotel's reception we realized that the rate we had found on the net was much better than what it was offered by the Hotel so we booked through the net and came back for check in.Staff in the reception were quite friendly and professional and explained everything to us so that we had a good stay.The room was quite big and comfortable. Beds and mattress excellent. All the amenities were provided included complimentary Wi Fi, overall we had an excellent stay.If we compare Courtyard Marriott with other chains that we stayed in our trip. Courtyard Marriott were top but not complimentary breakfast offered to us.We think they should!!!This is our only recommendation.More</t>
   </si>
   <si>
+    <t>Aadierks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r257583575-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1161,6 +1281,9 @@
     <t>I have been at 2 other marriotts in the last 2 weeks and had no problems with them accomodating me to put my freezer bags in a plastic bag and to store in their freezer. The ones in the room are too small. However when I stayed here they said it was against policy and wouldn't. Didn't offer an apology or explanation. This is often a request of mothers who travel and need to express and store milk. Very disappointed and do not reccommend this place for anyone needing this accomodation for medical purposes. More</t>
   </si>
   <si>
+    <t>iowahawkeyefan2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r251234902-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1188,6 +1311,9 @@
     <t>We have stayed at this location several times in the past and have always been very happy with our stay.  However, this wasn't the case with our stay last weekend........We checked in Friday evening and when showering on Saturday morning, the water was barely lukewarm. The water in the sink was a brown/rusty color when you first ran the water.   When inquiring at the front desk, we were told that the entire hotel was having problems, that a part was on order and they weren't sure when the problem would be fixed.   I was told to let the water run for 5-10 minutes and it would probably get hot (it didn't).  So in a state where there is a severe water shortage, that seemed to be a strange request.  Also, I would imagine that it would be hard for the Housekeeping staff to properly clean the rooms for the next guests without hot water!!  Given the health issues that arise when cleaning rooms, doing laundry and washing dishes with lukewarm/cold water, I am wondering if it would have been best to not accept guests until the problem was fixed.  Their explanation was that they were waiting on a part to arrive and I was told on Friday that it probably wouldn't be fixed until after the holiday.  Bad management all the way around on this one!More</t>
   </si>
   <si>
+    <t>Air_Mom14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r238360946-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1209,6 +1335,9 @@
     <t>Stayed here for the weekend of a family funeral, when everything other hotel was booked solid or cost twice as much. Pleasantly surprised that we had a lovely view of the mountains (ask for that side or you'll be looking at rooftops and parking lot). King room was clean, spacious and comfortable. Nice to have the convenience of a Starbucks/bar/breakfast cafe right in the hotel, especially since there's not a lot of nicer restaurant options in the immediate area.  Our one big disappointment was at check-in. I'd called the day before to request early check-in, as we needed to get to a funeral-related family event, and was told they'd try to have our rooms available at 11:00. At our arrival shortly past noon, one room was ready and we were told the other would be ready "soon". I again explained our situation, plus the fact that we were exhausted due to the prior 12 hours of travel, and that we'd would love to catch a nap before our obligations. We then waited over 3 HOURS before the room was finally cleaned - later than their normal check-in time of 3:00.  The front desk staff were friendly and tried to be helpful, but we were not impressed that no special effort was made by housekeeping under these circumstances.More</t>
   </si>
   <si>
+    <t>Tom H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r228803256-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1233,6 +1362,9 @@
     <t>Stayed on a saturday night hotel was booked out due to the 1d concert at the rose bowl but it was still close enough to the venue  Very quiet staff was awesome and they have starbucks coffee close to restaurants walmart etc shoppingMore</t>
   </si>
   <si>
+    <t>Jef I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r222501397-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1260,6 +1392,9 @@
     <t>Basic Courtyard rooms and very clean. Convenient to the EAST side of the County..... and also relatively quick (reverse commute) to the Ontario airport. I am a returning guest and consistently find the Breakfast Bistro crew as VERY slow.... and sometimes the orders are incorrect. I've observed some customers simply cancel their order because they can't wait any longer. Not much to eat in Baldwin Park, and suggested direction for restaurants is west-- toward West Covina... but be aware of commuter traffic. A ten-minute drive could easily become 45-50 minutes.More</t>
   </si>
   <si>
+    <t>Cathy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r221208849-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1287,6 +1422,9 @@
     <t>Bed was comfortable and our room was clean.  I would have given a 5 star if the ice box was cleaned.  I also like it that the hotel no longer put stuff in the fridge.  It is now left clean and empty which is very considerate of them.More</t>
   </si>
   <si>
+    <t>Lesley T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r207508964-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1314,6 +1452,9 @@
     <t>I was in town for a funeral, and I stayed here mostly because my dad had hotel points. We had three rooms and they were all fine: spacious, very clean, nice view of the residential neighborhood. The small cafe in the lobby offered a decent breakfast (egg sandwiches, french toast, coffee, pastries), and we visited the bar a few times in the evening and liked the comfortable seating and booths in the back room. My biggest issue with this hotel was the service. When I checked in and asked for help with my luggage, the receptionist pointed at a heavy luggage cart, implying that I should help myself. (I understand if the hotel does not provide this amenity, but a sincere explanation would've been nice.) When I tried to print out the funeral eulogy in the business center, the staff told me the wrong information, twice, about how to work the printer. Upon checkout, we found out we'd been overcharged for one of the rooms. It took about an hour to sort things out. The location of this hotel is excellent if you have business or other activities nearby, but I left with the feeling that the guests are an afterthought.More</t>
   </si>
   <si>
+    <t>Trixter45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r204561444-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1332,6 +1473,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>OregonJen2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r203909918-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1356,6 +1500,9 @@
     <t>Oh, I wanted to love this place. The location is pretty convenient - close to restaurants and a pretty nice mall. The staff members I encountered were friendly but there were just little things about our room that made it just a little less than a "very good" stay. The room was nice, but the bathroom could use a make-over. Why? The toilet is sooooo low and the toilet paper dispenser is far away! My husband complained that it was like sitting on a potty-training toilet...and it was a pretty accurate description. Also the shower/tub combo didn't drain properly so my feet were submersed in water while I showered. Didn't eat at the Bistro or use the pool or hot tub, so I can't comment on that. Our room had a fridge and an ok sized TV, pretty standard. Not a bad stay overall, the place just could use a little bit of improvement to make it top notch.More</t>
   </si>
   <si>
+    <t>Shirley D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r193982446-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1383,6 +1530,9 @@
     <t>Upon arrival we learned that we would be entitled to breakfast coupons!  They have a Starbucks stand on site and they serve breakfast out of there as well.  Hotel was clean, staff friendly, location was an easy on-off the highway.  Microwave in room upon request.  Refrigerators in all rooms.  Beautiful sunrise seen from front corner room!More</t>
   </si>
   <si>
+    <t>Aninda_mukherjee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r192752133-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1401,6 +1551,9 @@
     <t>Located in the Towne center of Baldwin park, has got very nice rooms and friendly staff. Has some good view of the LA, surrounding hills. Nice to get snaps during dawn and dusk. Fitness room and swimming pool is much better than hotels of the same class.Food is very costly and needs improvements. There is a Denny's and Mexican grill, which will be better substitute for food rather than the one inside.Big business centres and high speed internet, makes it ideal for business trips or holiday rental.More</t>
   </si>
   <si>
+    <t>suman_sasmal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r191284748-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1425,6 +1578,9 @@
     <t>the hotel was simply very good. very good location - loads of resturant around. the room quality is good and the ambience fantastic. the reception folks were warm and friendly. it's a true business hotel.More</t>
   </si>
   <si>
+    <t>luvtotravel2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r177006013-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1437,6 +1593,9 @@
     <t xml:space="preserve">Nice clean hotel.  Friendly service. I decided to extend my stay a night as a result.  Sizzler, mex, McDonald's and Asian food within walking distance.  Used it as a springboard for Disneyland and universal.  About a 30 min drive to each if you miss traffic. </t>
   </si>
   <si>
+    <t>soleilfood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r174741231-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1455,6 +1614,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>travjud</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r168710703-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1470,6 +1632,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>usndoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r160753161-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1491,6 +1656,9 @@
     <t>I read the unfavorable ratings on this hotel.  I didn't find any of the problems that the reviews identified.  This is a high risk hotel directly on I-10.  Naturally common sense would tell you to get a room AWAY from the highway on a high floor.  I was on the 8th floor in a corner room and had no noise.  Water pressure was fine and the air conditioner was cold.  The bed was comfortable.  The staff at the Bistro were wonderful and always helpful.  I experienced no problems here.  I would recommend this hotel to anyone.  I lucked out on a smogless day and had a direct view of the mountains.  Mountain View not guaranteed... depends on the Smog and Santa Ana winds.  The only problem is that there are no good restaurants close to the hotel.More</t>
   </si>
   <si>
+    <t>Emale73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r159257751-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1509,6 +1677,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Judy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r154536909-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1527,6 +1698,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>gone247travels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r148896514-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1545,6 +1719,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>discerndee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r148829952-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1566,6 +1743,9 @@
     <t>We stay at the Courtyard / Marriott chain allot, and this one is typical of their lay outs.  Nice rooms, comfortable beds, computers down stairs, café with light fair and drinks.  They have free Wi-Fi but we didn’t use it. We have now stayed twice at the Baldwin Park location as it is convenient to family that lives in West Covina.  In our travels we were able to get to Disneyland in 40 minutes, although with traffic it could take an hour.  We also were able to get to the Ontario Airport in 20 minutes on two separate occasions.  Hollywood and downtown Los Angeles has taken us about 30 minutes to get to on a good day.  As you can see we’re going a lot of OTHER places while staying at this hotel.  The immediate area is crowded and felt less-than-secure outside.  I would not be outside by myself at night if possible. The hotel itself, although seen from the 10 freeway as right there, can be a little tricky to find.  It is next to a large Home Depot and behind a Denny’s.  The Denny’s was incredibly slow and I we went there only because we were desperate after the café in the hotel took so long to do expensive eggs and toast.  There was the usual small frig in two of our rooms, but not in the room of our traveling companions.  They didn’t need it, but maybe...We stay at the Courtyard / Marriott chain allot, and this one is typical of their lay outs.  Nice rooms, comfortable beds, computers down stairs, café with light fair and drinks.  They have free Wi-Fi but we didn’t use it. We have now stayed twice at the Baldwin Park location as it is convenient to family that lives in West Covina.  In our travels we were able to get to Disneyland in 40 minutes, although with traffic it could take an hour.  We also were able to get to the Ontario Airport in 20 minutes on two separate occasions.  Hollywood and downtown Los Angeles has taken us about 30 minutes to get to on a good day.  As you can see we’re going a lot of OTHER places while staying at this hotel.  The immediate area is crowded and felt less-than-secure outside.  I would not be outside by myself at night if possible. The hotel itself, although seen from the 10 freeway as right there, can be a little tricky to find.  It is next to a large Home Depot and behind a Denny’s.  The Denny’s was incredibly slow and I we went there only because we were desperate after the café in the hotel took so long to do expensive eggs and toast.  There was the usual small frig in two of our rooms, but not in the room of our traveling companions.  They didn’t need it, but maybe check with the hotel to ensure you get one if you do need it.  The hotel has keyed entry to the lobby at night AND to the elevators.  So you need to be sure you have a key on you if you go down to the nice outdoor pool, or you’ll have to get the front desk to come over and key you into the elevator.  Both times we have stayed there have been large conventions and/or parties going on in the ball rooms.  The spill over into the lobby is not a problem as the areas are large enough and we did not hear any of the music or run into any drunken people.   The staff was very friendly and helpful.   This seems to be a stopping off place for a lot of people just traveling the greater Los Angeles area.   There are not many hotels in this area.  I think this is a good one for the experienced traveler.More</t>
   </si>
   <si>
+    <t>balkimn1174</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r146381171-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1584,6 +1764,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>TennisNoob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r144265053-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1605,6 +1788,9 @@
     <t>At first we were a bit puzzled after knowing the area around baldwin park wasn't safe. Many people around the area encourgaed us to cancel the reservation.Location is great just off the free way and will get you anywhere very fast, yet with no traffic puzzling situations. The Hotel outside had security at night sitting in the parking lot, the street lights were really bright making it really hard to not see what is going on. At night they block everything to only one entrance to ensure guest safety. The property was really new so I have no complaints at all, the room was convenient, the price was right, and the customer service was fine.Didn't get a chance to use the pool but overall it was a good stay didnt' have any problems.More</t>
   </si>
   <si>
+    <t>LAR801</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r143442262-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1626,6 +1812,9 @@
     <t>We were visiting areas like Pasadena/Glendale/Covina/Glendora (on different days)....so we thought this location would be a good central point.   The hotel lobby is very nice and service at the bar was good.  There are restaurant choices nearby (in the same hotel parking lot/shopping center)...plus the Westfield West Covina mall is very close.   It was a typical Courtyard experience (which is a good thing...you know what to expect...and get it).   Make sure you have address/GPS programmed if coming from the WEST to EAST to find the hotel...you have a make a few unexpected turns/zags once off the SOUTH side of the freeway to get to the hotel on the NORTH side of the freeway!  :)More</t>
   </si>
   <si>
+    <t>ldr74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r139930989-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1641,6 +1830,9 @@
     <t>We were in town for a family gathering nearby.  This hotel was a great place to stay.  Staff were courteous and helpful. The rooms were exceptionally clean.  The pillows werent very comfortable but the beds were just fine. There is plenty of nearby shopping and places to eat.</t>
   </si>
   <si>
+    <t>Roy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r135699425-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1662,6 +1854,9 @@
     <t>While the hotel itself is nice and the pool is nice, there are a few oddities to this hotel. The room is very spacious as the bathroom with nice counter space. However if you are using the toilet the paper is three feet away. I have no idea how women would reach it other than standing up. To access the elevator you have to use your room key 24/7. While the room is large, if you are in bed you cannot watch TV. It is located on the side and when you pull it our and turn the screen you lose the signal. Lost the internet signal several times during each use. Having stayed both here and at the Fairfield Inn a few miles away in West Covina, I will stay at the Fairfield Inn from now on when in the area.More</t>
   </si>
   <si>
+    <t>oopsforgot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r135512543-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1680,6 +1875,9 @@
     <t>See below. Didn 't get a chance to stay due to accessibility issues.I booked a reservation speaking directly to a hotel representative to ensure that I could obtain a room that was 'accessible'. I needed to have a room with a bathroom with handrails. I was assured that my request would be accomodated. When I checked on the website to see the rooms, the room description for two beds stated mobility accessibility was not an option. When I called the hotel directly I was told that the only way I could have an accessible room was with a king size bed. I subsequently had to cancel my reservation. I shudder to think what would have happened had I arrived late in the afternoon to find out my needs could not be met.More</t>
   </si>
   <si>
+    <t>johnpeso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r132391447-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1701,6 +1899,9 @@
     <t>Stayed here with the family when we came to California for a wedding.  It was a little hard to find since we ended up in the Home Depot parking lot thanks to the GPS but after driving around it, found this Hotel.  It is very clean and the staff was friendly.  They have a pool and a restaurant that currently is being renovated.  They also have a small gym with some treadmills, which helped since I needed to stay active.  The place seemed secure since I would see security patrolling the area all the time.  The room was spacious and clean and had a mini-fridge in it.  If I was in the area again, I would stay here.More</t>
   </si>
   <si>
+    <t>Onefunredhead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r129132389-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1716,6 +1917,9 @@
     <t>We booked on Hotels.com and for $5.00 a person we added a breakfast, which was well worth the money.  The room was nice, very roomy and clean. I was told it would have a frig and it didn't, that was a little disappointing. The view was of people's back yards but since were not there to lounge in the hotel, just to sleep and eat breakfast and it defiantly meet our needs and would stay again.</t>
   </si>
   <si>
+    <t>hoofheartedthistime</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r120384741-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1731,6 +1935,9 @@
     <t>Old, outdated. Our ac didn't get below 74. Noisy, heard people going to the bathroom, coughing etc. Very thin walls.</t>
   </si>
   <si>
+    <t>Jodeepups1965</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r119095756-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1746,6 +1953,9 @@
     <t>Our room was on the 3rd floor.The pool/hot tub area was directly below.There were people mingling there each night until 2-3am.Very loud.Fire alarm was pulled 2 nights in a row.This alarm was false.Unable to be turned off for at least 15 minutes.It went off at 1:30am last night and 3am tonight.All the desk says is we are very sorry.Sleep deprived and won't stay here again.We did have an excellent maid.Will leave her a tip.</t>
   </si>
   <si>
+    <t>HappyVagabond2458</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r116314424-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1761,6 +1971,9 @@
     <t>Stayed at the Marriott while attending a family funeral at Rose Hills as there were no good options in Whittier. Reservation process via phone w/ Tyler was seamless - even arranged for an early check-in for us. Very clean &amp; comfortable &amp; freeway close (literally along side the 10 Fwy). Would definitely recommend when visiting the SGV area.</t>
   </si>
   <si>
+    <t>seasunsounds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r115469346-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1782,6 +1995,9 @@
     <t>I stayed at this Hotel to attend an event in nearby City of Industry and was wonderfully surprised because of the location being right off the freeway. The front desk staff was friendly and helpful from check in through checkout. It was in a great location with good dining options and late night food in walking distance. The room had free internet and had been updated with energy efficient  lighting and sensors, coffee maker and fridge.There was a nice restaurant and bar in the lobby area and although there were events going on downstairs in the hotel, it was nice and quiet. The parking area was well lit and upkept which made me feel safe coming in late at night. This was a great place to stay and is on my list if I have to be in the area again.More</t>
   </si>
   <si>
+    <t>et0607</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r96332565-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1803,6 +2019,9 @@
     <t>While my husband was there on business, I was there to relax.  The first morning we had breakfast at the lobby restaurant.  The staff was a gem--the manager even asked if he could make our waffles for us then brought them to the table (even though it was a buffet).  They were extremely accommodating.  This is no a one-time-occurrence, either; the next day when we went back, the waiter acted just as hospitable.  The manager even came back to say hello to us.  Just when you think it can't get any better, when we returned to our room, we saw housekeeping cleaning the pool area.  She wiped down EVERY piece of furniture, then a gentleman came out and started scrubbing the jacuzzi.  It gets better...they even cleaned the cleaning bucket with a brush.  This place isn't clean, it's impeccable!!!More</t>
   </si>
   <si>
+    <t>seawall77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r83407615-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1822,6 +2041,9 @@
   </si>
   <si>
     <t>I had no gripes with this place.  Very nice staff, decent breakfast, spacious room.   It wasn't one of the snazzy new Courtyards, but everything was in good shape and it was your standard Courtyard Marriott.   They should upgrade the TVs in the rooms and get faster internet.  Also, it'd be nice to have a more expansive business center whose computers don't have that crappy non-standard software on it.   I'll gladly stay here again, however.  As for the area, I'm not sure what people are expecting.  It's Baldwin Park.   It's a fine are - not Beverly Hills - but not bad by any stretch of the imagination.   For people from outside of LA, though, this may not be convenient if you're on vacation.More</t>
+  </si>
+  <si>
+    <t>sofaonasock1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r82692570-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
@@ -1852,6 +2074,9 @@
 ...despite the troubles of changing rooms, the water pressure still left much to be desired in...Arrived mid-afternoon to check-in to my room, 2 Queens non-smoking. Requested for a room facing the back of the property, but "none were available" at the time. Checked in to a freeway-facing room on the 9th floor and the sounds of the freeway definitely resonated into the room. Attempted to use the bathroom and noticed that there was little water pressure in the sink and insufficient water pressure to use the shower.Informed the front desk and they reassured me that an engineer would be on their way and that the lead building engineer is also on it's way to the property, as the hotel is well aware of the issue.Upon my return to the hotel in the evening at ~ 11 pm. The water pressure was still poor in my room. Upon notifying the front desk, they informed me that there was no ETA and that all 2 Queens were sold out that evening....they suggested a 1 King Suite facing the freeway, on the 3rd floor. Upon entering the really dark room, the sounds of the freeway along w/ the pool resonated in the hot room. The A/C in the living room was loud and I learned the next morning that the drapes in the bedroom had a 2 inch gap, resulting in being awake as soon as the sun did!...despite the troubles of changing rooms, the water pressure still left much to be desired in the suite...More</t>
   </si>
   <si>
+    <t>AGRandy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r75536400-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1871,6 +2096,9 @@
   </si>
   <si>
     <t>This hotel was close to a client of mine so I decided to stay somewhat close so I could get there in the morning with out fighting the LA traffic.  The area in and around the hotel, isn't horrible but it isn't really nice either.  I was hoping to walk to a restaurant close by but decided to stay in the hotel and eat at the bar.  The food was great, the service was great...no problems.  My room was clean, Internet was above average, it was what I expected in a courtyard room.  The breakfast buffet was very good, again the service was good no problem.  In the end if you are looking for convenience this is hotel is fine, but if you are looking to get out of the hotel at night and walk around this is not a great place.More</t>
+  </si>
+  <si>
+    <t>LQGuy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r22096057-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
@@ -1902,6 +2130,9 @@
      The wireless connection in the room is not that great.  Several times, I had no connectivity at all.  In the AM,...I stayed at this hotel Nov. 17-21, 2008 in a King room (room 404).  People who have written reviews may be just slightly too kind.  Let me try to present a full picture:     The pros:  The staff ARE friendly and try to be helpful.  The hotel is clean, modern, and for a Courtyward, a bit nicer than the average Courtyard.  My room was exceptionally large, very clean, a nice comfortable bed, and very clean bathroom!  I ate all of my breakfasts and dinners at Emilio's and the food there was fairly good (better than Sizzler quality) and the prices were actually fair for what you got.       The cons:  After my first night (I left the room at 8:15AM and returned at 5:45PM) the maid never touched the room.  And it was too late to have it cleaned.  I chose not to say anything as I wasn't interested in getting someone in trouble for what was probably just an oversight.       On Day Three, I needed a Bank of America ATM.  The lady at the front desk sent me clear up to Walnut as the closest BofA (8 miles away).  Turned out there was one about one mile away up on Ramona Ave.  I was stuck on I-10 for 45 minutes just to get to the ATM she directed me to.       The wireless connection in the room is not that great.  Several times, I had no connectivity at all.  In the AM, it was great!  Most connectivity problems were in the PM.     So to summarize, this is NOT the Camelot that many seem to describe it as.  It's absolutely not a pit either!  Would I return to this particular hotel if I needed to be in this vicinity....probably yes (Baldwin Park/El Monte is a "dodgey" area and this is the nicest hotel in the immediate area...unless you're willing to drive to Pasadena).  Would I tell me friends that this is THE hotel to stay at if in the Greater LA area...absolutely not.  If you need to be in this area and can get a room for under $100 per night, is it worth is?...probably.More</t>
   </si>
   <si>
+    <t>Breber17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r21080881-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1920,6 +2151,9 @@
     <t>October 2008</t>
   </si>
   <si>
+    <t>track_kayak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r19114683-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1939,6 +2173,9 @@
   </si>
   <si>
     <t>My family stayed at this Courtyard for a week in July. The hotel is very nice and well kept with very helpful staff. We had a probelm with our door (it wouldn't lock) multiple times during our stay, and a repairman was always more than happy to come and help us out. The pool is nice, as is the courtyard. The breakfast was also good for a hotel, but nothing fancy (buffet). This hotel was conveniently located nearby a shopping center (down the road) and Mt. San Antonio College. However, it was not at all relaxing to see security guards patroling the parking lots constantly. The surrounding area seemed very run down, and there is apparently high crime in the area. Other than that, if I was ever back in the area, I would stay in this hotel without hesitation.More</t>
+  </si>
+  <si>
+    <t>HonestReviewForU</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r13921892-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
@@ -1972,6 +2209,9 @@
 And for those approaching the hotel by driving eastbound on I-10, a word of warning: Google maps sends you in a way that will have you turning into a Home Depot.  The hotel is behind the store, and you can reach...This is a nice property located on the westbound side of I-10, which you can hear from a room on that side.  But since I'll take that over a blaring TV or screaming kids, it didn't bother me.Check-in was easy, though because it was late at night, the front door was locked.  But the clerk quickly came to let me in. The room was clean and comfortable -- what you would expect from a Courtyard.  There's a Wal-Mart SuperCenter down the street for anything you could possibly need.About 5 minutes away is the Baldwin Park Metrolink train station, which has frequent service weekday mornings to Union Station.  It was well worth the $10.50 roundtrip and $3 parking to avoid the bumper-to-bumper on I-10.My only complaint is that unlike so many other hotels today, there was no free computer to use in the lobby.  Oh there was a computer -- which you could use for $3 a pop.  C'mon -- at $132 a night, what's the big deal about letting folks check e-mail or print a boarding pass?  The next night I saw the same thing at the Marriott Suites in Anaheim.  Maybe it's the same franchisee.And for those approaching the hotel by driving eastbound on I-10, a word of warning: Google maps sends you in a way that will have you turning into a Home Depot.  The hotel is behind the store, and you can reach it at the end of the parking lot, but there's no Courtyard sign at that entrance.More</t>
   </si>
   <si>
+    <t>RedwoodShores305</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r12313941-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -1993,6 +2233,9 @@
     <t>Our family recently stayed there for two nights while visiting relatives.   If you are looking for a clean and well appointed place to stay in this part of the San Gabriel Valley, this a a great choice.  While it is pricier than the standard motel which is prevalent in the area, you get a comfortable, clean, and well appointed hotel.We stayed in a double queen room which was spacious.  We ate breakfast at the hotel restaurant (buffet) and the food quality was very good.  Amenities such a free wi-fi, newspapers and magazines are a nice touch.  The staff was friendly and helpful.  The hotel was nice and quiet.  One side of the hotel is close to the freeway and there is a bit of noise from that.  We requested a room opposite the freeway (facing a residential neighborhood) and it was nice and quiet.More</t>
   </si>
   <si>
+    <t>JFCRSS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r7858692-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -2014,6 +2257,9 @@
     <t>I was looking for a hotel in the area of the Forrest Lawn mortuary due to a death in the family.  This hotel was about 7 miles away and great compared to the rest of the choices.  I paid close attention to the other tripadvisor reviews.  As this was not a vacation, and I am used to staying at more "luxury" locations, my expecatations were pretty low.  Upon arrival the front desk staff were VERY helpful and curtious.  The hotel itself is right on the 10 freeway, but you could not hear it inside the rooms or lobby (be sure to ask for a mountain-view).  The lobby was very nice, bartender gave great directions and made stiff drinks.  I kept up with work, due to their free wi-fi.  The free breakfast buffet was basic and eggs yucky...but you get what you pay for, right?Rooms clean, bed comfy, and freeway close...while not a luxury hotel, it deserves more than 3 stars.More</t>
   </si>
   <si>
+    <t>TripMemberAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r6121228-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -2032,6 +2278,9 @@
     <t>Was nervous about what we might find upon arrival, only because I knew this hotel was "on" a freeway, and not in a 4 star hotel category.  Arrived to find them cleaning the windows in the entry, and signs out noting freshly cleaned carpets...and not because they were icky or soiled, I just think this Courtyard is an A+ on cleanliness and is working to keep it that way.  Our room was spacious, clean and quiet (requested a mtn view which insured no freeway noise).  Love the new $250 fine policy for anyone leaving a room smokey....this is brilliant and hopefully will become the norm for many!  The front desk staff was courteous, quick and helpful.More</t>
   </si>
   <si>
+    <t>Joan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r5728908-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -2048,6 +2297,9 @@
   </si>
   <si>
     <t>We booked this hotel as a place to stay while visiting friends on the last leg of our California trip. This hotel was a very pleasant surprise and we were delighted with everything. There was ample space for parking which was at no additional cost. The front desk gentleman was very hospitable and gave us a large room with queen beds that was very comfortable beyond our expectations. The location was close to the highway and several places to eat. We stayed a total of 3 nights because we were so satisfied with the experience of the first night. The front desk was very responsive - they delivered the bathroom towels we requested at 12:30 in the morning after we realized that housekeeping forgot to replenish them that day. There was complimentary wireless Internet - awesome! We simply loved staying here and would definitely recommend it.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75950-r4728692-Courtyard_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
@@ -2570,43 +2822,47 @@
       <c r="A2" t="n">
         <v>26757</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>7885</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2622,56 +2878,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>26757</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132625</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2689,56 +2949,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>26757</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132626</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2750,56 +3014,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>26757</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2815,56 +3083,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>26757</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132627</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2882,56 +3154,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>26757</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132628</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2949,56 +3225,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>26757</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132629</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3010,56 +3290,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>26757</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>132630</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3071,56 +3355,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>26757</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132631</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3136,56 +3424,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>26757</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>132632</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3197,56 +3489,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>26757</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>12985</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3258,56 +3554,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>26757</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132633</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3319,56 +3619,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>26757</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>9167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3384,56 +3688,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>26757</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>132634</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3445,56 +3753,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>26757</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>132635</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3506,56 +3818,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>26757</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132636</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3567,56 +3883,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>26757</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>132637</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3632,56 +3952,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>26757</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132638</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3701,50 +4025,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>26757</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>3978</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3760,56 +4088,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>26757</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>77454</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3821,56 +4153,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>26757</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132639</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3886,47 +4222,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>26757</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>4229</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
         <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
@@ -3943,56 +4283,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="X23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>26757</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>28949</v>
+      </c>
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4008,56 +4352,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="X24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="Y24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>26757</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>132640</v>
+      </c>
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="J25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="K25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4069,56 +4417,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>26757</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132641</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4130,56 +4482,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>26757</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>9691</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4197,56 +4553,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="X27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="Y27" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>26757</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>50340</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4258,56 +4618,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="X28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>26757</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132642</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4323,56 +4687,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="Y29" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>26757</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132643</v>
+      </c>
+      <c r="C30" t="s">
+        <v>315</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="L30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4390,50 +4758,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>26757</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132644</v>
+      </c>
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="J31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="K31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="L31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4447,56 +4819,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="X31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Y31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>26757</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>2710</v>
+      </c>
+      <c r="C32" t="s">
+        <v>332</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="J32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="K32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="L32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4508,56 +4884,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="X32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="Y32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>26757</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>59349</v>
+      </c>
+      <c r="C33" t="s">
+        <v>342</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="J33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="K33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="L33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4575,56 +4955,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="X33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="Y33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>26757</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>80251</v>
+      </c>
+      <c r="C34" t="s">
+        <v>351</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="J34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="K34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4642,56 +5026,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="X34" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="Y34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>26757</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132645</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="J35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="K35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="L35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4707,56 +5095,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="X35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="Y35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>26757</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>15619</v>
+      </c>
+      <c r="C36" t="s">
+        <v>368</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="J36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="K36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4774,56 +5166,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="X36" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="Y36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>26757</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>228</v>
+      </c>
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="J37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="K37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4841,56 +5237,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="X37" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="Y37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>26757</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>69644</v>
+      </c>
+      <c r="C38" t="s">
+        <v>383</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="J38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="L38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4908,56 +5308,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="X38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="Y38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>26757</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132646</v>
+      </c>
+      <c r="C39" t="s">
+        <v>393</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="J39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="K39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="L39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4975,50 +5379,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>26757</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>132647</v>
+      </c>
+      <c r="C40" t="s">
+        <v>400</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="J40" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="K40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5036,41 +5444,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>26757</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>132648</v>
+      </c>
+      <c r="C41" t="s">
+        <v>406</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="K41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="L41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
@@ -5095,56 +5507,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="X41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="Y41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>26757</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>132649</v>
+      </c>
+      <c r="C42" t="s">
+        <v>415</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="J42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="K42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="L42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5162,56 +5578,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="X42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="Y42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>26757</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>132650</v>
+      </c>
+      <c r="C43" t="s">
+        <v>425</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="J43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="K43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="L43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5231,41 +5651,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>26757</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>6480</v>
+      </c>
+      <c r="C44" t="s">
+        <v>433</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="J44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="L44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -5292,56 +5716,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="X44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="Y44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>26757</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>132651</v>
+      </c>
+      <c r="C45" t="s">
+        <v>442</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="J45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="L45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5359,56 +5787,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="X45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="Y45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>26757</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>2887</v>
+      </c>
+      <c r="C46" t="s">
+        <v>452</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="J46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="K46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="L46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5426,56 +5858,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="X46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>26757</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>132652</v>
+      </c>
+      <c r="C47" t="s">
+        <v>462</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="J47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="K47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="L47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5497,56 +5933,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="X47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="Y47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>26757</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>132653</v>
+      </c>
+      <c r="C48" t="s">
+        <v>472</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="J48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="K48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="L48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="O48" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5570,41 +6010,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>26757</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>132654</v>
+      </c>
+      <c r="C49" t="s">
+        <v>479</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="J49" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="K49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="L49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
@@ -5621,56 +6065,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="X49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="Y49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>26757</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C50" t="s">
+        <v>488</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="J50" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="K50" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="L50" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5692,56 +6140,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="X50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="Y50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>26757</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>132655</v>
+      </c>
+      <c r="C51" t="s">
+        <v>498</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J51" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="K51" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="L51" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5753,56 +6205,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="X51" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="Y51" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>26757</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>132656</v>
+      </c>
+      <c r="C52" t="s">
+        <v>505</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="J52" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="K52" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="L52" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5824,47 +6280,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="X52" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="Y52" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>26757</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>113811</v>
+      </c>
+      <c r="C53" t="s">
+        <v>514</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J53" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="K53" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
@@ -5893,50 +6353,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>26757</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>132657</v>
+      </c>
+      <c r="C54" t="s">
+        <v>519</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="J54" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="K54" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="L54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5960,50 +6424,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>26757</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>132658</v>
+      </c>
+      <c r="C55" t="s">
+        <v>526</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="J55" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="K55" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6027,50 +6495,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>26757</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>132659</v>
+      </c>
+      <c r="C56" t="s">
+        <v>532</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="J56" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="K56" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="L56" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6094,50 +6566,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>26757</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>51393</v>
+      </c>
+      <c r="C57" t="s">
+        <v>540</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="J57" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="K57" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="L57" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6161,50 +6637,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>26757</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>47312</v>
+      </c>
+      <c r="C58" t="s">
+        <v>547</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="J58" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="K58" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="L58" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="O58" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6228,50 +6708,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>26757</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>132660</v>
+      </c>
+      <c r="C59" t="s">
+        <v>554</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="J59" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="K59" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="L59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6295,50 +6779,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>26757</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>132661</v>
+      </c>
+      <c r="C60" t="s">
+        <v>561</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="J60" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="K60" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="L60" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6362,50 +6850,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>26757</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>132662</v>
+      </c>
+      <c r="C61" t="s">
+        <v>569</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="J61" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="K61" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="L61" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6429,50 +6921,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>26757</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>132663</v>
+      </c>
+      <c r="C62" t="s">
+        <v>576</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="J62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="K62" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="L62" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6496,50 +6992,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>26757</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>132664</v>
+      </c>
+      <c r="C63" t="s">
+        <v>584</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="J63" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="K63" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="L63" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="O63" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6563,50 +7063,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>26757</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>80335</v>
+      </c>
+      <c r="C64" t="s">
+        <v>592</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="J64" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="K64" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="L64" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6630,50 +7134,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>26757</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>132665</v>
+      </c>
+      <c r="C65" t="s">
+        <v>598</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="J65" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="K65" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="L65" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6697,50 +7205,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>26757</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>132666</v>
+      </c>
+      <c r="C66" t="s">
+        <v>606</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="J66" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="K66" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="L66" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6754,50 +7266,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>26757</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>132667</v>
+      </c>
+      <c r="C67" t="s">
+        <v>613</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="J67" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="K67" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="L67" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6821,50 +7337,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>26757</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>132668</v>
+      </c>
+      <c r="C68" t="s">
+        <v>621</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="J68" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="K68" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="L68" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6888,41 +7408,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>26757</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>132669</v>
+      </c>
+      <c r="C69" t="s">
+        <v>627</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="J69" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="K69" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="L69" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
@@ -6951,41 +7475,45 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>26757</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>132670</v>
+      </c>
+      <c r="C70" t="s">
+        <v>633</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="J70" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="K70" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="L70" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
@@ -7014,41 +7542,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>26757</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>132671</v>
+      </c>
+      <c r="C71" t="s">
+        <v>639</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="J71" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="K71" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="L71" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7077,50 +7609,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>26757</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>132672</v>
+      </c>
+      <c r="C72" t="s">
+        <v>645</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
       <c r="J72" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="K72" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="L72" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7140,50 +7676,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>26757</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>132673</v>
+      </c>
+      <c r="C73" t="s">
+        <v>653</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>582</v>
+        <v>654</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="J73" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="K73" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="L73" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7207,50 +7747,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>26757</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>132674</v>
+      </c>
+      <c r="C74" t="s">
+        <v>661</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="J74" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="K74" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="L74" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7274,50 +7818,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>26757</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>132675</v>
+      </c>
+      <c r="C75" t="s">
+        <v>669</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="J75" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="K75" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="L75" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7341,50 +7889,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>26757</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>132676</v>
+      </c>
+      <c r="C76" t="s">
+        <v>676</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="J76" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="K76" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="L76" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7408,50 +7960,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>26757</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>132677</v>
+      </c>
+      <c r="C77" t="s">
+        <v>684</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="J77" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
       <c r="K77" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
       <c r="L77" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7475,50 +8031,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>26757</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>132678</v>
+      </c>
+      <c r="C78" t="s">
+        <v>692</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="J78" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="K78" t="s">
-        <v>619</v>
+        <v>696</v>
       </c>
       <c r="L78" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7542,50 +8102,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>26757</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>132679</v>
+      </c>
+      <c r="C79" t="s">
+        <v>699</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="J79" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="K79" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
       <c r="L79" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7609,50 +8173,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>26757</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C80" t="s">
+        <v>707</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>630</v>
+        <v>709</v>
       </c>
       <c r="J80" t="s">
-        <v>631</v>
+        <v>710</v>
       </c>
       <c r="K80" t="s">
-        <v>632</v>
+        <v>711</v>
       </c>
       <c r="L80" t="s">
-        <v>633</v>
+        <v>712</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7674,50 +8242,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>635</v>
+        <v>714</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>26757</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>132680</v>
+      </c>
+      <c r="C81" t="s">
+        <v>715</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>636</v>
+        <v>716</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>637</v>
+        <v>717</v>
       </c>
       <c r="J81" t="s">
-        <v>638</v>
+        <v>718</v>
       </c>
       <c r="K81" t="s">
-        <v>639</v>
+        <v>719</v>
       </c>
       <c r="L81" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>641</v>
+        <v>721</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7741,50 +8313,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>642</v>
+        <v>722</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>26757</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>132681</v>
+      </c>
+      <c r="C82" t="s">
+        <v>723</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>644</v>
+        <v>725</v>
       </c>
       <c r="J82" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
       <c r="K82" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
       <c r="L82" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7808,41 +8384,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>26757</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>132682</v>
+      </c>
+      <c r="C83" t="s">
+        <v>731</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>650</v>
+        <v>732</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>651</v>
+        <v>733</v>
       </c>
       <c r="J83" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="K83" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="L83" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
@@ -7871,50 +8451,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>26757</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>117141</v>
+      </c>
+      <c r="C84" t="s">
+        <v>738</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>656</v>
+        <v>739</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>657</v>
+        <v>740</v>
       </c>
       <c r="J84" t="s">
-        <v>658</v>
+        <v>741</v>
       </c>
       <c r="K84" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="L84" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>660</v>
+        <v>743</v>
       </c>
       <c r="O84" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7938,41 +8522,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>661</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>26757</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>745</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>662</v>
+        <v>746</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>663</v>
+        <v>747</v>
       </c>
       <c r="J85" t="s">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="K85" t="s">
-        <v>665</v>
+        <v>749</v>
       </c>
       <c r="L85" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
@@ -7999,7 +8587,7 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_153.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_153.xlsx
@@ -2892,7 +2892,7 @@
         <v>26757</v>
       </c>
       <c r="B3" t="n">
-        <v>132625</v>
+        <v>163426</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2963,7 +2963,7 @@
         <v>26757</v>
       </c>
       <c r="B4" t="n">
-        <v>132626</v>
+        <v>163427</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -3097,7 +3097,7 @@
         <v>26757</v>
       </c>
       <c r="B6" t="n">
-        <v>132627</v>
+        <v>163428</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -3168,7 +3168,7 @@
         <v>26757</v>
       </c>
       <c r="B7" t="n">
-        <v>132628</v>
+        <v>163429</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -3239,7 +3239,7 @@
         <v>26757</v>
       </c>
       <c r="B8" t="n">
-        <v>132629</v>
+        <v>163430</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -3304,7 +3304,7 @@
         <v>26757</v>
       </c>
       <c r="B9" t="n">
-        <v>132630</v>
+        <v>163431</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -3369,7 +3369,7 @@
         <v>26757</v>
       </c>
       <c r="B10" t="n">
-        <v>132631</v>
+        <v>163432</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
@@ -3438,7 +3438,7 @@
         <v>26757</v>
       </c>
       <c r="B11" t="n">
-        <v>132632</v>
+        <v>163433</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -3568,7 +3568,7 @@
         <v>26757</v>
       </c>
       <c r="B13" t="n">
-        <v>132633</v>
+        <v>163434</v>
       </c>
       <c r="C13" t="s">
         <v>155</v>
@@ -3702,7 +3702,7 @@
         <v>26757</v>
       </c>
       <c r="B15" t="n">
-        <v>132634</v>
+        <v>163435</v>
       </c>
       <c r="C15" t="s">
         <v>174</v>
@@ -3767,7 +3767,7 @@
         <v>26757</v>
       </c>
       <c r="B16" t="n">
-        <v>132635</v>
+        <v>163436</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -3832,7 +3832,7 @@
         <v>26757</v>
       </c>
       <c r="B17" t="n">
-        <v>132636</v>
+        <v>163437</v>
       </c>
       <c r="C17" t="s">
         <v>193</v>
@@ -3897,7 +3897,7 @@
         <v>26757</v>
       </c>
       <c r="B18" t="n">
-        <v>132637</v>
+        <v>163438</v>
       </c>
       <c r="C18" t="s">
         <v>203</v>
@@ -3966,7 +3966,7 @@
         <v>26757</v>
       </c>
       <c r="B19" t="n">
-        <v>132638</v>
+        <v>163439</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -4167,7 +4167,7 @@
         <v>26757</v>
       </c>
       <c r="B22" t="n">
-        <v>132639</v>
+        <v>163440</v>
       </c>
       <c r="C22" t="s">
         <v>239</v>
@@ -4366,7 +4366,7 @@
         <v>26757</v>
       </c>
       <c r="B25" t="n">
-        <v>132640</v>
+        <v>163441</v>
       </c>
       <c r="C25" t="s">
         <v>267</v>
@@ -4431,7 +4431,7 @@
         <v>26757</v>
       </c>
       <c r="B26" t="n">
-        <v>132641</v>
+        <v>163442</v>
       </c>
       <c r="C26" t="s">
         <v>277</v>
@@ -4632,7 +4632,7 @@
         <v>26757</v>
       </c>
       <c r="B29" t="n">
-        <v>132642</v>
+        <v>163443</v>
       </c>
       <c r="C29" t="s">
         <v>307</v>
@@ -4701,7 +4701,7 @@
         <v>26757</v>
       </c>
       <c r="B30" t="n">
-        <v>132643</v>
+        <v>163444</v>
       </c>
       <c r="C30" t="s">
         <v>315</v>
@@ -4766,7 +4766,7 @@
         <v>26757</v>
       </c>
       <c r="B31" t="n">
-        <v>132644</v>
+        <v>163445</v>
       </c>
       <c r="C31" t="s">
         <v>322</v>
@@ -5040,7 +5040,7 @@
         <v>26757</v>
       </c>
       <c r="B35" t="n">
-        <v>132645</v>
+        <v>163446</v>
       </c>
       <c r="C35" t="s">
         <v>358</v>
@@ -5322,7 +5322,7 @@
         <v>26757</v>
       </c>
       <c r="B39" t="n">
-        <v>132646</v>
+        <v>163447</v>
       </c>
       <c r="C39" t="s">
         <v>393</v>
@@ -5387,7 +5387,7 @@
         <v>26757</v>
       </c>
       <c r="B40" t="n">
-        <v>132647</v>
+        <v>163448</v>
       </c>
       <c r="C40" t="s">
         <v>400</v>
@@ -5452,7 +5452,7 @@
         <v>26757</v>
       </c>
       <c r="B41" t="n">
-        <v>132648</v>
+        <v>163449</v>
       </c>
       <c r="C41" t="s">
         <v>406</v>
@@ -5521,7 +5521,7 @@
         <v>26757</v>
       </c>
       <c r="B42" t="n">
-        <v>132649</v>
+        <v>163450</v>
       </c>
       <c r="C42" t="s">
         <v>415</v>
@@ -5592,7 +5592,7 @@
         <v>26757</v>
       </c>
       <c r="B43" t="n">
-        <v>132650</v>
+        <v>163451</v>
       </c>
       <c r="C43" t="s">
         <v>425</v>
@@ -5730,7 +5730,7 @@
         <v>26757</v>
       </c>
       <c r="B45" t="n">
-        <v>132651</v>
+        <v>163452</v>
       </c>
       <c r="C45" t="s">
         <v>442</v>
@@ -5872,7 +5872,7 @@
         <v>26757</v>
       </c>
       <c r="B47" t="n">
-        <v>132652</v>
+        <v>163453</v>
       </c>
       <c r="C47" t="s">
         <v>462</v>
@@ -5947,7 +5947,7 @@
         <v>26757</v>
       </c>
       <c r="B48" t="n">
-        <v>132653</v>
+        <v>163454</v>
       </c>
       <c r="C48" t="s">
         <v>472</v>
@@ -6018,7 +6018,7 @@
         <v>26757</v>
       </c>
       <c r="B49" t="n">
-        <v>132654</v>
+        <v>163455</v>
       </c>
       <c r="C49" t="s">
         <v>479</v>
@@ -6154,7 +6154,7 @@
         <v>26757</v>
       </c>
       <c r="B51" t="n">
-        <v>132655</v>
+        <v>163456</v>
       </c>
       <c r="C51" t="s">
         <v>498</v>
@@ -6219,7 +6219,7 @@
         <v>26757</v>
       </c>
       <c r="B52" t="n">
-        <v>132656</v>
+        <v>163457</v>
       </c>
       <c r="C52" t="s">
         <v>505</v>
@@ -6361,7 +6361,7 @@
         <v>26757</v>
       </c>
       <c r="B54" t="n">
-        <v>132657</v>
+        <v>163458</v>
       </c>
       <c r="C54" t="s">
         <v>519</v>
@@ -6432,7 +6432,7 @@
         <v>26757</v>
       </c>
       <c r="B55" t="n">
-        <v>132658</v>
+        <v>163459</v>
       </c>
       <c r="C55" t="s">
         <v>526</v>
@@ -6503,7 +6503,7 @@
         <v>26757</v>
       </c>
       <c r="B56" t="n">
-        <v>132659</v>
+        <v>163460</v>
       </c>
       <c r="C56" t="s">
         <v>532</v>
@@ -6716,7 +6716,7 @@
         <v>26757</v>
       </c>
       <c r="B59" t="n">
-        <v>132660</v>
+        <v>163461</v>
       </c>
       <c r="C59" t="s">
         <v>554</v>
@@ -6787,7 +6787,7 @@
         <v>26757</v>
       </c>
       <c r="B60" t="n">
-        <v>132661</v>
+        <v>163462</v>
       </c>
       <c r="C60" t="s">
         <v>561</v>
@@ -6858,7 +6858,7 @@
         <v>26757</v>
       </c>
       <c r="B61" t="n">
-        <v>132662</v>
+        <v>163463</v>
       </c>
       <c r="C61" t="s">
         <v>569</v>
@@ -6929,7 +6929,7 @@
         <v>26757</v>
       </c>
       <c r="B62" t="n">
-        <v>132663</v>
+        <v>163464</v>
       </c>
       <c r="C62" t="s">
         <v>576</v>
@@ -7000,7 +7000,7 @@
         <v>26757</v>
       </c>
       <c r="B63" t="n">
-        <v>132664</v>
+        <v>163465</v>
       </c>
       <c r="C63" t="s">
         <v>584</v>
@@ -7142,7 +7142,7 @@
         <v>26757</v>
       </c>
       <c r="B65" t="n">
-        <v>132665</v>
+        <v>163466</v>
       </c>
       <c r="C65" t="s">
         <v>598</v>
@@ -7213,7 +7213,7 @@
         <v>26757</v>
       </c>
       <c r="B66" t="n">
-        <v>132666</v>
+        <v>163467</v>
       </c>
       <c r="C66" t="s">
         <v>606</v>
@@ -7274,7 +7274,7 @@
         <v>26757</v>
       </c>
       <c r="B67" t="n">
-        <v>132667</v>
+        <v>163468</v>
       </c>
       <c r="C67" t="s">
         <v>613</v>
@@ -7345,7 +7345,7 @@
         <v>26757</v>
       </c>
       <c r="B68" t="n">
-        <v>132668</v>
+        <v>163469</v>
       </c>
       <c r="C68" t="s">
         <v>621</v>
@@ -7416,7 +7416,7 @@
         <v>26757</v>
       </c>
       <c r="B69" t="n">
-        <v>132669</v>
+        <v>163470</v>
       </c>
       <c r="C69" t="s">
         <v>627</v>
@@ -7483,7 +7483,7 @@
         <v>26757</v>
       </c>
       <c r="B70" t="n">
-        <v>132670</v>
+        <v>163471</v>
       </c>
       <c r="C70" t="s">
         <v>633</v>
@@ -7550,7 +7550,7 @@
         <v>26757</v>
       </c>
       <c r="B71" t="n">
-        <v>132671</v>
+        <v>163472</v>
       </c>
       <c r="C71" t="s">
         <v>639</v>
@@ -7617,7 +7617,7 @@
         <v>26757</v>
       </c>
       <c r="B72" t="n">
-        <v>132672</v>
+        <v>163473</v>
       </c>
       <c r="C72" t="s">
         <v>645</v>
@@ -7684,7 +7684,7 @@
         <v>26757</v>
       </c>
       <c r="B73" t="n">
-        <v>132673</v>
+        <v>163474</v>
       </c>
       <c r="C73" t="s">
         <v>653</v>
@@ -7755,7 +7755,7 @@
         <v>26757</v>
       </c>
       <c r="B74" t="n">
-        <v>132674</v>
+        <v>163475</v>
       </c>
       <c r="C74" t="s">
         <v>661</v>
@@ -7826,7 +7826,7 @@
         <v>26757</v>
       </c>
       <c r="B75" t="n">
-        <v>132675</v>
+        <v>163476</v>
       </c>
       <c r="C75" t="s">
         <v>669</v>
@@ -7897,7 +7897,7 @@
         <v>26757</v>
       </c>
       <c r="B76" t="n">
-        <v>132676</v>
+        <v>163477</v>
       </c>
       <c r="C76" t="s">
         <v>676</v>
@@ -7968,7 +7968,7 @@
         <v>26757</v>
       </c>
       <c r="B77" t="n">
-        <v>132677</v>
+        <v>163478</v>
       </c>
       <c r="C77" t="s">
         <v>684</v>
@@ -8039,7 +8039,7 @@
         <v>26757</v>
       </c>
       <c r="B78" t="n">
-        <v>132678</v>
+        <v>163479</v>
       </c>
       <c r="C78" t="s">
         <v>692</v>
@@ -8110,7 +8110,7 @@
         <v>26757</v>
       </c>
       <c r="B79" t="n">
-        <v>132679</v>
+        <v>163480</v>
       </c>
       <c r="C79" t="s">
         <v>699</v>
@@ -8250,7 +8250,7 @@
         <v>26757</v>
       </c>
       <c r="B81" t="n">
-        <v>132680</v>
+        <v>163481</v>
       </c>
       <c r="C81" t="s">
         <v>715</v>
@@ -8321,7 +8321,7 @@
         <v>26757</v>
       </c>
       <c r="B82" t="n">
-        <v>132681</v>
+        <v>163482</v>
       </c>
       <c r="C82" t="s">
         <v>723</v>
@@ -8392,7 +8392,7 @@
         <v>26757</v>
       </c>
       <c r="B83" t="n">
-        <v>132682</v>
+        <v>163483</v>
       </c>
       <c r="C83" t="s">
         <v>731</v>
